--- a/data/hotel22/test.xlsx
+++ b/data/hotel22/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +564,11 @@
           <t>gpt3.5-bert-base-multilingual-cased-e2eabsa-committee-graph</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>gpt3.5-bert-base-multilingual-cased-e2eabsa-committee-voting</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -696,6 +701,11 @@
           <t>[('limpeza', 'POS'), ('custo-benefício', 'POS'), ('hotel', 'POS'), ('lojas', 'POS')]</t>
         </is>
       </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localizacao', 'POS'), ('farmacia', 'POS'), ('restaurantes', 'POS'), ('lojas', 'POS'), ('Funcionarios', 'POS'), ('limpeza', 'POS'), ('custo-benefício', 'POS'), ('conveniente', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -828,6 +838,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('café da manhã', 'POS'), ('rua', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('louvre', 'POS'), ('moulan', 'POS'), ('hotel de ville', 'POS'), ('catedral de notre dame', 'POS'), ('metro', 'POS'), ('antendimento', 'POS'), ('café da manhã', 'POS'), ('rua', 'NEG'), ('caminhar', 'POS'), ('Recomendo', 'POS'), ('barulho', 'NEG'), ('moulan rouge', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -960,6 +975,11 @@
           <t>[('Localização', 'POS'), ('atendimento', 'POS'), ('serviços', 'POS'), ('hotel', 'POS'), ('cama', 'POS'), ('Café da manhã', 'POS')]</t>
         </is>
       </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>[('Localização', 'POS'), ('atendimento', 'POS'), ('serviços', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('banheiro', 'POS'), ('banheira', 'POS'), ('closet', 'POS'), ('sofá', 'POS'), ('poltrona', 'POS'), ('Quarto', 'POS'), ('Louvre', 'NEU'), ('Café da manhã', 'POS'), ('antigo', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1092,6 +1112,11 @@
           <t>[('localização', 'POS'), ('piscinas', 'POS')]</t>
         </is>
       </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>[('hospedagem', 'POS'), ('Hotel Aria', 'POS'), ('hotel', 'POS'), ('Hotel Wynn', 'POS'), ('arquitetura', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('restaurante', 'POS'), ('café da manha', 'POS'), ('preço', 'POS'), ('piscinas', 'POS'), ('dj', 'POS'), ('estilo louge', 'POS'), ('Liquid Pool', 'POS'), ('jovens.', 'POS'), ('hotel para almoco', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1224,6 +1249,11 @@
           <t>[('quarto', 'POS'), ('serviço', 'POS'), ('piscina', 'POS'), ('cama', 'POS')]</t>
         </is>
       </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('cama', 'POS'), ('sofá', 'POS'), ('mesa de trabalho', 'POS'), ('banheiro', 'POS'), ('banheira', 'POS'), ('comentários', 'POS'), ('carros Mercedes', 'POS'), ('piscina', 'POS'), ('conexão', 'POS'), ('serviço', 'POS'), ('conexão para computadores', 'POS'), ('Voltarei', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1356,6 +1386,11 @@
           <t>[('quarto', 'POS'), ('internet', 'POS')]</t>
         </is>
       </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>[('metro', 'POS'), ('restaurantes', 'POS'), ('internet', 'POS'), ('serafina', 'POS'), ('quarto', 'POS'), ('bar/café', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1488,6 +1523,11 @@
           <t>[('quarto', 'POS'), ('preço', 'POS'), ('chuveiro', 'POS')]</t>
         </is>
       </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('banheiro', 'POS'), ('preço', 'POS'), ('localização', 'POS'), ('ambientes', 'POS'), ('banheiros', 'NEG'), ('chuveiro', 'POS'), ('atendimento', 'POS'), ('sistema', 'POS'), ('hotéis', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1620,6 +1660,11 @@
           <t>[('localização', 'POS'), ('elevador', 'NEG'), ('quartos', 'NEG'), ('estacionamento', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('elevador', 'NEG'), ('quarto', 'NEG'), ('barulho', 'NEG'), ('piso', 'NEG'), ('lençol', 'NEG'), ('coberto', 'NEG'), ('banheiro', 'NEG'), ('ar condicionado/aquecedor', 'NEG'), ('estacionamento', 'NEG'), ('wi-fi', 'NEG'), ('lobby', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1752,6 +1797,11 @@
           <t>[('quarto', 'POS'), ('atendimento', 'POS'), ('internet', 'NEG'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('localizacao', 'POS'), ('atendimento', 'POS'), ('hotel', 'POS'), ('arquitetura', 'POS'), ('quartos', 'POS'), ('internet', 'NEG'), ('funcionarios', 'NEG'), ('banheiro', 'NEG'), ('confiso', 'NEG'), ('cafe da manha', 'NEG'), ('espanhol', 'NEG'), ('chao', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1884,6 +1934,11 @@
           <t>[('quarto', 'POS'), ('chuveiro', 'POS'), ('Hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>[('acomodações', 'POS'), ('quarto', 'POS'), ('banheiro', 'POS'), ('chuveiro', 'POS'), ('encomendas', 'POS'), ('check in', 'NEG'), ('check out', 'NEG'), ('vôo', 'NEG'), ('retornar', 'POS'), ('Hotel', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2016,6 +2071,11 @@
           <t>[('hotel', 'POS'), ('quartos', 'POS'), ('café da manhã', 'POS'), ('funcionários', 'POS'), ('internet', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS'), ('café da manhã', 'POS'), ('funcionários', 'POS'), ('internet', 'POS'), ('malas', 'NEG'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2148,6 +2208,11 @@
           <t>[('cama', 'POS'), ('quarto', 'POS'), ('recepção', 'POS')]</t>
         </is>
       </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>[('check in', 'NEG'), ('cama', 'POS'), ('quarto', 'POS'), ('espaço.Limpeza', 'POS'), ('organização', 'POS'), ('recepção', 'POS'), ('pontos turisticos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2280,6 +2345,11 @@
           <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('cortinas', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('estadia', 'POS'), ('termos encontrado', 'NEG'), ('meia', 'NEG'), ('faxina', 'NEG'), ('quarto', 'POS'), ('Zero', 'NEG'), ('cortinas', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2412,6 +2482,11 @@
           <t>[('cidade', 'POS'), ('hotel', 'POS'), ('preço', 'POS')]</t>
         </is>
       </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>[('nivel cultural', 'POS'), ('hotel', 'POS'), ('museu do louvre', 'POS'), ('museu de orsay', 'POS'), ('preço', 'POS'), ('recepçao', 'POS'), ('sala', 'POS'), ('café da manha', 'POS'), ('cidade', 'POS'), ('conhecer', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2544,6 +2619,11 @@
           <t>[('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('limpo', 'POS'), ('transfer', 'POS'), ('internet', 'POS'), ('academia', 'POS'), ('localização', 'POS'), ('lindo', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2676,6 +2756,11 @@
           <t>[('preço', 'POS'), ('hotel', 'POS'), ('banheira', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('hotel', 'POS'), ('metro', 'POS'), ('banheira', 'POS'), ('quarto', 'POS'), ('café da manhá', 'POS'), ('Hotel', 'POS'), ('Carrefour', 'POS'), ('água', 'POS'), ('sucos', 'POS'), ('lanches', 'POS'), ('Euro', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2808,6 +2893,11 @@
           <t>[('preço', 'POS'), ('serviço', 'POS'), ('Hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('serviço', 'POS'), ('conceito', 'POS'), ('Hotel', 'POS'), ('transportes', 'POS'), ('bus', 'POS'), ('metro', 'POS'), ('Centro Paris', 'POS'), ('Room Tip', 'POS'), ('último piso', 'POS'), ('comboio', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2940,6 +3030,11 @@
           <t>[('hotel', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('novidades eletrônicas', 'POS'), ('quarto', 'POS'), ('halloween', 'POS'), ('cidade', 'POS'), ('fantasias', 'POS'), ('visual', 'POS'), ('rua', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3072,6 +3167,11 @@
           <t>[('Hotel', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>[('ar', 'NEG'), ('Hotel', 'NEG'), ('fresta', 'NEG'), ('política', 'NEG'), ('comentário', 'NEG'), ('janela', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3204,6 +3304,11 @@
           <t>[('hotel', 'POS'), ('apartamento', 'POS'), ('preço', 'POS')]</t>
         </is>
       </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('apartamento', 'POS'), ('limpo', 'POS'), ('reformado', 'POS'), ('remodelado', 'POS'), ('preço', 'POS'), ('custo x beneficio', 'POS'), ('novinho', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3336,6 +3441,11 @@
           <t>[('quartos', 'POS'), ('jantares', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('cocktail', 'POS'), ('concierge', 'POS'), ('quartos', 'POS'), ('decoração', 'POS'), ('limpo', 'POS'), ('jantares', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3468,6 +3578,11 @@
           <t>[('hotel', 'POS'), ('frigobar', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>[('estação de metro', 'POS'), ('hotel', 'POS'), ('Cafe da manha', 'NEG'), ('atente', 'NEG'), ('fechamento', 'NEG'), ('frigobar nos Ibis', 'NEG'), ('conceito', 'POS'), ('falta de frigobar', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3600,6 +3715,11 @@
           <t>[('preço', 'POS'), ('serviços', 'POS'), ('café da manhã', 'POS'), ('Toalhas', 'POS'), ('frigobar', 'POS'), ('quartos', 'POS'), ('elevador', 'NEG'), ('serviço de quarto', 'POS'), ('Hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('serviços', 'POS'), ('serviço de transfer aeroporto/hotel/aeroporto', 'POS'), ('taxi.Um', 'POS'), ('café da manhã', 'POS'), ('lençóis', 'POS'), ('frigobar', 'POS'), ('quartos', 'POS'), ('elevador', 'NEG'), ('serviço de quarto', 'POS'), ('comida', 'POS'), ('filé', 'POS'), ('Toalhas', 'POS'), ('ar condicionado', 'POS'), ('Hotel', 'POS'), ('pit stop', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3732,6 +3852,11 @@
           <t>[('café da manhã', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('acomodações', 'POS'), ('centro comercial', 'POS'), ('restaurantes', 'POS'), ('café da manhã', 'POS'), ('atendente do restaurante', 'NEG'), ('comida', 'NEG'), ('recepcionistas', 'POS'), ('lojas', 'POS'), ('Bercy Vilage', 'POS'), ('mercado', 'POS'), ('depósitos de vinho', 'POS'), ('estação do metrô', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3864,6 +3989,11 @@
           <t>[('limpeza', 'POS'), ('quartos', 'POS')]</t>
         </is>
       </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>[('Hotel de Negócios', 'POS'), ('localização', 'POS'), ('serviço de Concierge', 'POS'), ('conservado', 'POS'), ('manutenção', 'POS'), ('quartos', 'POS'), ('Café da manhã', 'NEG'), ('Concierge', 'POS'), ('limpeza', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3996,6 +4126,11 @@
           <t>[('quarto', 'NEG'), ('Café da manhã', 'POS'), ('atendimento', 'POS')]</t>
         </is>
       </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>[('transfer', 'POS'), ('trânsito', 'NEG'), ('quarto', 'NEG'), ('isolamento acústico', 'NEG'), ('Quarto', 'POS'), ('cama', 'POS'), ('Banheiro', 'POS'), ('Café da manhã', 'POS'), ('Equipe', 'POS'), ('atendimento', 'POS'), ('valor', 'POS'), ('av . Farrapos', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4128,6 +4263,11 @@
           <t>[('hotel', 'POS'), ('quartos', 'POS'), ('localização', 'POS'), ('preço', 'POS')]</t>
         </is>
       </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS'), ('gosto', 'POS'), ('limpos', 'POS'), ('banheiro', 'NEG'), ('espaço', 'NEG'), ('atendentes', 'POS'), ('localização', 'POS'), ('preço', 'POS'), ('Paris', 'POS'), ('Recomendo', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4260,6 +4400,11 @@
           <t>[('recepção', 'NEG'), ('quartos', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>[('Reservas', 'NEG'), ('quartos', 'NEG'), ('camas', 'NEG'), ('Cama', 'NEG'), ('recepção', 'NEG'), ('reserva', 'NEG'), ('confusão', 'NEG'), ('valores', 'NEG'), ('desorganização', 'NEG'), ('lugar', 'NEG'), ('dificuldade', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4392,6 +4537,11 @@
           <t>[('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>[('Estadia', 'POS'), ('check-in', 'POS'), ('check-out', 'POS'), ('staff', 'POS'), ('simpático', 'POS'), ('pequeno-almoço', 'POS'), ('brunch', 'POS'), ('Internet wifi', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4524,6 +4674,11 @@
           <t>[('instalações', 'POS'), ('cidade', 'POS')]</t>
         </is>
       </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>[('instalações', 'POS'), ('quartos', 'NEG'), ('luxo', 'NEU'), ('espaço', 'POS'), ('Relaxe', 'POS'), ('cidade', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4656,6 +4811,11 @@
           <t>[('hotel', 'POS'), ('quarto', 'POS'), ('camas', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('custo-benefício', 'POS')]</t>
         </is>
       </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('camas', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('custo-benefício', 'POS'), ('hotéis de preço', 'NEG'), ('pão', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4788,6 +4948,11 @@
           <t>[('quartos', 'POS'), ('serviço', 'POS')]</t>
         </is>
       </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>[('Wynn', 'POS'), ('Belaggio', 'POS'), ('Veneza', 'POS'), ('Aria', 'POS'), ('Wynnn', 'POS'), ('Encore', 'POS'), ('quartos', 'POS'), ('serviço', 'POS'), ('comida', 'POS'), ('shows', 'POS'), ('festas', 'POS'), ('pools parties', 'POS'), ('boate XS', 'POS'), ('shows e festas', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4920,6 +5085,11 @@
           <t>[('quartos', 'POS'), ('café da manhã', 'POS'), ('lavanderia', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>[('café da manhã', 'POS'), ('cookies', 'NEG'), ('lavanderia', 'NEG'), ('Custo benefício', 'POS'), ('opções', 'POS'), ('quartos', 'POS'), ('fim da tarde', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5052,6 +5222,11 @@
           <t>[('hotel', 'POS'), ('banheira', 'POS'), ('Limpeza', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('banheiro', 'POS'), ('banheira', 'POS'), ('Aparência', 'POS'), ('Limpeza', 'POS'), ('cortesias', 'POS'), ('garrafinha de água', 'POS'), ('aparelho', 'POS'), ('ingredientes', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('metro', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5184,6 +5359,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'NEG'), ('atendimento', 'POS')]</t>
         </is>
       </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>[('funcionarios', 'POS'), ('localização', 'POS'), ('quarto', 'NEG'), ('minibar', 'NEG'), ('quartos', 'NEG'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5316,6 +5496,11 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>[('Ar Condicionado', 'NEG'), ('climatização', 'NEG'), ('janelas', 'NEG'), ('pó', 'NEG'), ('dias quentes', 'NEG'), ('poluição', 'NEG'), ('pó preto', 'NEG'), ('piso dos quartos', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5448,6 +5633,11 @@
           <t>[('café da manhã', 'POS'), ('turistas', 'POS'), ('quartos', 'POS'), ('funcionários', 'POS'), ('hotel', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>[('pessoas', 'POS'), ('café da manhã', 'POS'), ('turistas', 'POS'), ('quartos', 'POS'), ('ambiente', 'POS'), ('funcionários', 'POS'), ('centro', 'POS'), ('inglês', 'NEG'), ('hotel', 'NEG'), ('metro', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5580,6 +5770,11 @@
           <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
         </is>
       </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('empregados', 'POS'), ('café-da-manhã', 'NEG'), ('Paris', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5712,6 +5907,11 @@
           <t>[('hotel', 'NEG'), ('corredores', 'NEG'), ('carpetes', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('manutenção.Trata-se', 'NEG'), ('construção', 'NEG'), ('corredores', 'NEG'), ('carpetes', 'NEG'), ('pintura', 'NEG'), ('banheiros', 'NEG'), ('reforma', 'NEG'), ('revitalização', 'NEG'), ('preservação', 'NEG'), ('espaços', 'NEG'), ('iluminados', 'NEG'), ('paredes', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5844,6 +6044,11 @@
           <t>[('localização', 'POS'), ('serviço', 'POS'), ('funcionários', 'POS'), ('quartos', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('serviço', 'POS'), ('funcionários', 'POS'), ('quartos', 'POS'), ('hotel', 'POS'), ('atrações', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5976,6 +6181,11 @@
           <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('internet', 'POS'), ('atendimento', 'POS')]</t>
         </is>
       </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('atrações', 'POS'), ('café da manhã', 'POS'), ('internet', 'POS'), ('quarto', 'POS'), ('frigobar', 'POS'), ('janelas', 'POS'), ('banheiro', 'POS'), ('atendimento', 'POS'), ('atendente', 'NEU'), ('metro St Lazare', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6108,6 +6318,11 @@
           <t>[('localização', 'POS'), ('quarto', 'POS'), ('chuveiro', 'NEG'), ('elevador', 'NEG'), ('rua', 'POS')]</t>
         </is>
       </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('banheiro', 'NEG'), ('chuveiro', 'NEG'), ('elevador', 'NEG'), ('custo', 'POS'), ('Barulho', 'NEG'), ('rua', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6240,6 +6455,11 @@
           <t>[('hotel', 'NEG'), ('instalações', 'NEG'), ('limpeza', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('local', 'NEG'), ('instalações', 'NEG'), ('limpeza', 'NEG'), ('aspecto', 'NEG'), ('cheiro', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6372,6 +6592,11 @@
           <t>[('carpete', 'NEG'), ('teatro', 'POS')]</t>
         </is>
       </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('cama', 'POS'), ('limpo', 'POS'), ('carpete', 'NEG'), ('reserva', 'POS'), ('calefacao', 'NEU'), ('Localizacao', 'POS'), ('restaurantes', 'POS'), ('teatro', 'POS'), ('metro', 'POS'), ('talheres', 'NEG'), ('microondas', 'NEG'), ('cafeteira', 'NEG'), ('Recomendo', 'POS'), ('cheiro', 'NEG'), ('mofo', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6504,6 +6729,11 @@
           <t>[('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>[('funcionários', 'NEG'), ('arrumação dos quartos', 'NEG'), ('localização', 'POS'), ('Sacre Coeur', 'POS'), ('restaurantes', 'POS'), ('relação custo-benefício', 'POS'), ('metro', 'POS'), ('cafes', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6636,6 +6866,11 @@
           <t>[('hotel', 'POS'), ('cidade', 'POS'), ('quartos', 'POS')]</t>
         </is>
       </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('cidade', 'POS'), ('quarto', 'POS'), ('equipe', 'POS'), ('centro', 'POS'), ('negócios', 'POS'), ('vida', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6768,6 +7003,11 @@
           <t>[('localização', 'POS'), ('cama', 'POS'), ('ducha', 'POS'), ('limpeza', 'POS'), ('café da manhã', 'POS'), ('suítes', 'POS')]</t>
         </is>
       </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>[('escolha', 'POS'), ('tranquilo', 'POS'), ('localização', 'POS'), ('cama', 'POS'), ('ducha', 'POS'), ('limpeza', 'POS'), ('recepcionistas', 'POS'), ('café da manhã', 'NEG'), ('suítes', 'POS'), ('silencioso', 'POS'), ('banho', 'NEG'), ('suítes deluxe', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6900,6 +7140,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('restaurante', 'POS'), ('vista', 'POS'), ('bell man', 'NEG'), ('estrutura', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7032,6 +7277,11 @@
           <t>[('Hotel', 'POS'), ('localização', 'POS'), ('atendimento', 'POS'), ('Shopping', 'POS')]</t>
         </is>
       </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('atendimento', 'POS'), ('Shopping', 'POS'), ('room-service', 'NEG'), ('nutricionista', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7164,6 +7414,11 @@
           <t>[('localização', 'NEG'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>[('localização', 'NEG'), ('hotel', 'POS'), ('avenida', 'NEG'), ('café', 'POS'), ('movimento', 'POS'), ('barulho', 'NEG'), ('acomodações', 'POS'), ('ônibus', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7296,6 +7551,11 @@
           <t>[('Apartamentos', 'POS'), ('camas', 'POS'), ('chuveiro', 'POS'), ('Café da manhã', 'POS'), ('funcionários', 'POS'), ('Internet', 'POS')]</t>
         </is>
       </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>[('Apartamentos', 'POS'), ('camas', 'POS'), ('chuveiro', 'POS'), ('Café', 'POS'), ('café', 'POS'), ('cozinha', 'POS'), ('funcionário', 'POS'), ('quarto', 'POS'), ('chá', 'POS'), ('chocolate quente', 'POS'), ('Internet', 'POS'), ('garrafas de água', 'POS'), ('dia', 'POS'), ('Recomendo', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7428,6 +7688,11 @@
           <t>[('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('limpo', 'POS'), ('confortável', 'POS'), ('Circ du Soleil', 'POS'), ('hotel', 'POS'), ('áreas de lazer', 'NEG'), ('resort fees', 'NEG'), ('credicard', 'NEG'), ('taxa', 'NEG'), ('tickets', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7560,6 +7825,11 @@
           <t>[('Quarto', 'POS'), ('Localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>[('Quarto', 'POS'), ('Wi-Fi', 'POS'), ('friforifico', 'POS'), ('microondas', 'POS'), ('máquina de café', 'POS'), ('Localização', 'POS'), ('rockefeller center', 'POS'), ('Staff', 'POS'), ('computadores', 'POS'), ('impressoras', 'POS'), ('Boarding pass', 'POS'), ('andar', 'POS'), ('máquina de água', 'POS'), ('relação preço', 'POS'), ('garrafas', 'POS'), ('5th Avenue', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7692,6 +7962,11 @@
           <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('piscina', 'POS')]</t>
         </is>
       </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('limpo', 'POS'), ('lindo', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('banheiro', 'POS'), ('vista', 'POS'), ('hotel', 'POS'), ('piscina', 'POS'), ('shows', 'POS'), ('golfinhos', 'POS'), ('cascata', 'POS'), ('tigres', 'POS'), ('drinks', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7824,6 +8099,11 @@
           <t>[('quarto', 'NEG'), ('tv', 'NEG'), ('hotel', 'NEG'), ('café da manhã', 'POS'), ('preço', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('mofo', 'NEG'), ('tv', 'NEG'), ('café da manhã', 'POS'), ('portaria', 'POS'), ('hospedagem', 'NEG'), ('quartos', 'NEG'), ('Roupas de cama', 'POS'), ('porta do box do banheiro', 'NEG'), ('privada', 'NEG'), ('janela do banheiro', 'NEG'), ('crianças', 'NEG'), ('banho', 'NEG'), ('hotel', 'NEG'), ('preço', 'NEG'), ('higiene', 'NEG'), ('bonita', 'POS'), ('organizada', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7956,6 +8236,11 @@
           <t>[('Quarto', 'POS'), ('cama', 'POS'), ('cassino', 'POS')]</t>
         </is>
       </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>[('Tropicana', 'POS'), ('Quarto', 'POS'), ('cama', 'POS'), ('limpo', 'POS'), ('banheiro', 'POS'), ('cassino', 'POS'), ('maquininhas', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8088,6 +8373,11 @@
           <t>[('quartos', 'NEG'), ('shoppings', 'POS'), ('aeroporto', 'POS')]</t>
         </is>
       </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG'), ('local para guardar roupas', 'NEG'), ('café-da-manhã', 'NEG'), ('acesso wi-fi', 'NEG'), ('centro', 'POS'), ('bares', 'POS'), ('hotéis', 'POS'), ('shoppings', 'POS'), ('aeroporto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8220,6 +8510,11 @@
           <t>[('serviço de quarto', 'NEG'), ('recepção', 'POS'), ('café da manhã', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>[('recepção', 'POS'), ('portugues', 'POS'), ('serviço de quarto', 'NEG'), ('frigobar', 'NEG'), ('suite', 'POS'), ('porta de correr', 'POS'), ('café da manhã', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8352,6 +8647,11 @@
           <t>[('hotel', 'POS'), ('Atendimento', 'POS'), ('café da manhã', 'POS'), ('Localização', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Atendimento', 'POS'), ('café da manhã', 'POS'), ('estadia', 'POS'), ('Localização', 'POS'), ('Angela', 'POS'), ('recepcionista', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS'), ('Recomendo', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8484,6 +8784,11 @@
           <t>[('quartos', 'POS'), ('Hotel', 'POS'), ('camas', 'POS')]</t>
         </is>
       </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>[('facilidade de transporte', 'POS'), ('equipe', 'POS'), ('quartos', 'NEG'), ('banheiro', 'NEG'), ('custo x benefício', 'POS'), ('Hotel', 'POS'), ('limpo', 'POS'), ('camas', 'POS'), ('Máquina de café', 'POS'), ('chá', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8616,6 +8921,11 @@
           <t>[('hotel', 'NEG'), ('atendimento', 'POS'), ('café da manhã', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('reforma', 'NEG'), ('atendimento', 'POS'), ('café da manhã', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8748,6 +9058,11 @@
           <t>[('Hotel', 'POS'), ('quartos', 'POS'), ('roupa de cama', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'POS'), ('roupa de cama', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('tarifas', 'POS'), ('vista', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8880,6 +9195,11 @@
           <t>[('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('linha do ônibus', 'POS'), ('estação do metrô', 'POS'), ('barulho de carros', 'NEG'), ('padaria', 'POS'), ('supermercado', 'POS'), ('apartamento', 'NEU')]</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9012,6 +9332,11 @@
           <t>[('quarto', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>[('experiência', 'POS'), ('evento', 'POS'), ('valor para a estrutura do hotel', 'NEG'), ('box do banheiro', 'NEG'), ('quarto', 'NEG'), ('hotéis', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9144,6 +9469,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>[('viagem', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('limpo', 'POS'), ('silencioso', 'POS'), ('charmoso', 'POS'), ('decoração', 'POS'), ('locomoção', 'POS'), ('orientação', 'POS'), ('empregados', 'POS'), ('prestativos', 'POS'), ('gentis', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9276,6 +9606,11 @@
           <t>[('frigobar', 'NEG'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Quarto', 'POS'), ('banheiro', 'POS'), ('metrô', 'POS'), ('Shake Shacks', 'POS'), ('Recepcionistas', 'POS'), ('César', 'POS'), ('frigobar', 'NEG'), ('serviço de entrega de pacotes', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9408,6 +9743,11 @@
           <t>[('localização', 'POS'), ('Quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('restaurantes', 'POS'), ('centro', 'POS'), ('Quarto', 'POS'), ('banheiro', 'NEG'), ('pro', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9540,6 +9880,11 @@
           <t>[('hotel', 'POS'), ('Funcionários', 'POS'), ('Quartos', 'POS')]</t>
         </is>
       </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('strip', 'POS'), ('Funcionários', 'POS'), ('Quartos', 'POS'), ('quarto', 'POS'), ('vista para o lago', 'POS'), ('check in', 'POS'), ('check out', 'POS'), ('frontais', 'POS'), ('vista das fontes', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9672,6 +10017,11 @@
           <t>[('estacionamento', 'POS')]</t>
         </is>
       </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('check in', 'POS'), ('zoológico', 'POS'), ('alimentação', 'POS'), ('estacionamento', 'POS'), ('vistas', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9804,6 +10154,11 @@
           <t>[('preço', 'POS'), ('Internet', 'POS'), ('recepção', 'POS')]</t>
         </is>
       </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG'), ('serviço', 'POS'), ('preço', 'POS'), ('hotel', 'POS'), ('Área', 'POS'), ('torre', 'POS'), ('Internet', 'NEU'), ('recepção', 'POS'), ('funcionários', 'POS'), ('padrão Ibis', 'POS'), ('Paris', 'POS'), ('farmácias', 'POS'), ('restaurantes', 'POS'), ('supermercado', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9936,6 +10291,11 @@
           <t>[('piscina', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>[('piscina', 'POS'), ('hotel', 'POS'), ('Cassino', 'NEG'), ('cassino', 'POS'), ('festas', 'POS'), ('bom', 'POS'), ('confortável', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10068,6 +10428,11 @@
           <t>[('Estacionamento', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>[('banheiro', 'NEG'), ('Paris', 'POS'), ('economia', 'POS'), ('metro', 'POS'), ('RER', 'POS'), ('Hotel', 'POS'), ('convenções', 'NEU'), ('Estacionamento', 'NEG'), ('eventos', 'NEU'), ('acesso', 'POS'), ('Vizinhança', 'POS'), ('contagem', 'POS'), ('rua', 'POS'), ('lobby', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10200,6 +10565,11 @@
           <t>[('localização', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('funcionários', 'POS')]</t>
         </is>
       </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('banheiro', 'POS'), ('funcionários', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10332,6 +10702,11 @@
           <t>[('localização', 'POS'), ('funcionários', 'POS'), ('chuveiro', 'POS'), ('banheira', 'POS'), ('pia', 'POS'), ('shopping', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('pontos turísticos', 'POS'), ('área', 'POS'), ('shopping', 'POS'), ('metrô', 'POS'), ('funcionários', 'POS'), ('banheiro', 'NEG'), ('vaso sanitário', 'NEG'), ('chuveiro', 'POS'), ('banheira', 'POS'), ('pia', 'POS'), ('bares', 'POS'), ('restaurantes', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10464,6 +10839,11 @@
           <t>[('hotel', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('cobertura', 'POS'), ('vista', 'POS'), ('quarto', 'POS'), ('localização', 'POS'), ('barulho', 'NEG'), ('movimento no térre', 'NEG'), ('criançs', 'NEG'), ('carrinhos d bebe', 'NEG'), ('sacolas de compras', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10596,6 +10976,11 @@
           <t>[('shopping', 'POS'), ('lojas', 'POS'), ('atendimento', 'POS'), ('elevador', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>[('supermercado', 'POS'), ('lojas', 'POS'), ('estrutura', 'NEG'), ('atendimento', 'POS'), ('estrutura física', 'NEG'), ('elevador', 'NEG'), ('custo beneficio', 'POS'), ('shopping', 'POS'), ('ponto de taxi', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10728,6 +11113,11 @@
           <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>[('estadia', 'POS'), ('hotel', 'POS'), ('bar', 'POS'), ('atendimento', 'POS'), ('restaurante', 'POS'), ('localização', 'POS'), ('musicais.Os', 'POS'), ('decorados', 'POS'), ('piscina', 'NEG'), ('Time Square', 'POS'), ('vista', 'POS'), ('quarto', 'POS'), ('W de Miami', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10860,6 +11250,11 @@
           <t>[('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('funcionarios', 'POS'), ('restaurante', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10992,6 +11387,11 @@
           <t>[('carpete', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>[('antigo', 'NEG'), ('quarto', 'NEG'), ('carpete', 'NEG'), ('Wifi', 'POS'), ('papel de parede', 'NEG'), ('hotéis', 'NEG'), ('reforma', 'NEG'), ('velho', 'NEG'), ('TUDO', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11124,6 +11524,11 @@
           <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>[('atendimento', 'POS'), ('quarto', 'POS'), ('tamanho', 'POS'), ('bar', 'POS'), ('entretenimento', 'POS'), ('proximidades', 'POS'), ('café', 'NEG'), ('mini cozinha', 'POS'), ('Spa', 'NEG'), ('piscina', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11256,6 +11661,11 @@
           <t>[('hotel', 'POS'), ('quarto', 'POS'), ('frigobar', 'NEG')]</t>
         </is>
       </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('vista', 'POS'), ('Quarto', 'POS'), ('frigobar', 'NEG'), ('decoraçao', 'NEG'), ('roupas', 'NEG'), ('fotos', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11388,6 +11798,11 @@
           <t>[('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('paragem de autocarro', 'POS'), ('Musée du Louvre', 'POS'), ('estações de metro', 'POS'), ('quartos', 'NEG'), ('ar condicionado', 'NEG'), ('Staff do Hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11520,6 +11935,11 @@
           <t>[('localização', 'POS'), ('funcionários', 'POS'), ('internet', 'POS')]</t>
         </is>
       </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('receptividade', 'POS'), ('prédio', 'POS'), ('cheiro', 'NEG'), ('internet', 'POS'), ('acesso', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11650,6 +12070,11 @@
       <c r="Z85" t="inlineStr">
         <is>
           <t>[('hotel', 'POS'), ('rua', 'POS'), ('funcionários', 'POS'), ('localização', 'POS'), ('café da manhã', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('banheiro', 'POS'), ('rua', 'POS'), ('funcionários', 'POS'), ('localização', 'POS'), ('pontos turísticos', 'POS'), ('relação custo-benefício', 'POS'), ('café da manhã', 'NEG')]</t>
         </is>
       </c>
     </row>

--- a/data/hotel22/test.xlsx
+++ b/data/hotel22/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA85"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,31 @@
           <t>gpt3.5-bert-base-multilingual-cased-e2eabsa-committee-voting</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>hotel22-bert-base-portuguese-cased-e2eabsa-linear</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>hotel22-bert-base-portuguese-cased-e2eabsa-san</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>hotel22-bert-base-portuguese-cased-e2eabsa-tfm</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>hotel22-bert-base-portuguese-cased-e2eabsa-crf</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>hotel22-bert-base-portuguese-cased-e2eabsa-gru</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -706,6 +731,31 @@
           <t>[('hotel', 'POS'), ('localizacao', 'POS'), ('farmacia', 'POS'), ('restaurantes', 'POS'), ('lojas', 'POS'), ('Funcionarios', 'POS'), ('limpeza', 'POS'), ('custo-benefício', 'POS'), ('conveniente', 'POS')]</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('lojas', 'POS'), ('limpeza', 'POS'), ('quartos', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('lojas', 'POS'), ('limpeza', 'POS'), ('quartos', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>[('lojas', 'POS'), ('limpeza', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>[('limpeza', 'POS'), ('quartos', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>[('lojas', 'POS'), ('limpeza', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -843,6 +893,31 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('louvre', 'POS'), ('moulan', 'POS'), ('hotel de ville', 'POS'), ('catedral de notre dame', 'POS'), ('metro', 'POS'), ('antendimento', 'POS'), ('café da manhã', 'POS'), ('rua', 'NEG'), ('caminhar', 'POS'), ('Recomendo', 'POS'), ('barulho', 'NEG'), ('moulan rouge', 'POS')]</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('café da manhã', 'POS'), ('rua', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('café da manhã', 'POS'), ('rua', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('café da manhã', 'POS'), ('rua', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('café da manhã', 'POS'), ('rua', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('café da manhã', 'POS'), ('rua', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -980,6 +1055,31 @@
           <t>[('Localização', 'POS'), ('atendimento', 'POS'), ('serviços', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('banheiro', 'POS'), ('banheira', 'POS'), ('closet', 'POS'), ('sofá', 'POS'), ('poltrona', 'POS'), ('Quarto', 'POS'), ('Louvre', 'NEU'), ('Café da manhã', 'POS'), ('antigo', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>[('Localização', 'POS'), ('atendimento', 'POS'), ('serviços', 'POS'), ('hotel', 'POS'), ('cama', 'POS'), ('cama', 'POS'), ('hotel', 'POS'), ('Café da manhã', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>[('Localização', 'POS'), ('atendimento', 'POS'), ('serviços', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('cama', 'POS'), ('hotel', 'POS'), ('Café da manhã', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>[('Localização', 'POS'), ('atendimento', 'POS'), ('serviços', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('hotel', 'POS'), ('Café da manhã', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>[('Localização', 'POS'), ('atendimento', 'POS'), ('serviços', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('cama', 'POS'), ('Quarto', 'POS'), ('hotel', 'POS'), ('Café da manhã', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>[('Localização', 'POS'), ('atendimento', 'POS'), ('serviços', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('Quarto', 'POS'), ('hotel', 'POS'), ('Café da manhã', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1117,6 +1217,31 @@
           <t>[('hospedagem', 'POS'), ('Hotel Aria', 'POS'), ('hotel', 'POS'), ('Hotel Wynn', 'POS'), ('arquitetura', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('restaurante', 'POS'), ('café da manha', 'POS'), ('preço', 'POS'), ('piscinas', 'POS'), ('dj', 'POS'), ('estilo louge', 'POS'), ('Liquid Pool', 'POS'), ('jovens.', 'POS'), ('hotel para almoco', 'POS')]</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('Hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('preço', 'POS'), ('piscinas', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('Hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('preço', 'POS'), ('piscinas', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('Hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('preço', 'POS'), ('piscinas', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('Hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('preço', 'POS'), ('piscinas', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('Hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('preço', 'POS'), ('piscinas', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1254,6 +1379,31 @@
           <t>[('quarto', 'POS'), ('cama', 'POS'), ('sofá', 'POS'), ('mesa de trabalho', 'POS'), ('banheiro', 'POS'), ('banheira', 'POS'), ('comentários', 'POS'), ('carros Mercedes', 'POS'), ('piscina', 'POS'), ('conexão', 'POS'), ('serviço', 'POS'), ('conexão para computadores', 'POS'), ('Voltarei', 'POS')]</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('cama', 'POS'), ('banheira', 'POS'), ('chuveiro', 'POS'), ('serviço', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('cama', 'POS'), ('serviço', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('cama', 'POS'), ('banheira', 'POS'), ('serviço', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('cama', 'POS'), ('serviço', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('cama', 'POS'), ('banheira', 'POS'), ('serviço', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1391,6 +1541,31 @@
           <t>[('metro', 'POS'), ('restaurantes', 'POS'), ('internet', 'POS'), ('serafina', 'POS'), ('quarto', 'POS'), ('bar/café', 'POS')]</t>
         </is>
       </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('cama', 'POS'), ('internet', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('internet', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('internet', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('cama', 'POS'), ('internet', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('internet', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1528,6 +1703,31 @@
           <t>[('quarto', 'POS'), ('banheiro', 'POS'), ('preço', 'POS'), ('localização', 'POS'), ('ambientes', 'POS'), ('banheiros', 'NEG'), ('chuveiro', 'POS'), ('atendimento', 'POS'), ('sistema', 'POS'), ('hotéis', 'POS')]</t>
         </is>
       </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('localização', 'POS'), ('chuveiro', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('localização', 'POS'), ('chuveiro', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('localização', 'POS'), ('chuveiro', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('localização', 'POS'), ('chuveiro', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('localização', 'POS'), ('chuveiro', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1665,6 +1865,31 @@
           <t>[('localização', 'POS'), ('elevador', 'NEG'), ('quarto', 'NEG'), ('barulho', 'NEG'), ('piso', 'NEG'), ('lençol', 'NEG'), ('coberto', 'NEG'), ('banheiro', 'NEG'), ('ar condicionado/aquecedor', 'NEG'), ('estacionamento', 'NEG'), ('wi-fi', 'NEG'), ('lobby', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>[('elevador', 'NEG'), ('quartos', 'NEG'), ('estacionamento', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>[('elevador', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>[('localização', 'NEG'), ('elevador', 'NEG'), ('quartos', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>[('elevador', 'NEG'), ('estacionamento', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1802,6 +2027,31 @@
           <t>[('quarto', 'POS'), ('localizacao', 'POS'), ('atendimento', 'POS'), ('hotel', 'POS'), ('arquitetura', 'POS'), ('quartos', 'POS'), ('internet', 'NEG'), ('funcionarios', 'NEG'), ('banheiro', 'NEG'), ('confiso', 'NEG'), ('cafe da manha', 'NEG'), ('espanhol', 'NEG'), ('chao', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('atendimento', 'POS'), ('hotel', 'POS'), ('internet', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('atendimento', 'POS'), ('hotel', 'POS'), ('internet', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('quarto', 'POS'), ('atendimento', 'POS'), ('hotel', 'POS'), ('internet', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('atendimento', 'POS'), ('hotel', 'POS'), ('internet', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('atendimento', 'POS'), ('hotel', 'POS'), ('internet', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1939,6 +2189,31 @@
           <t>[('acomodações', 'POS'), ('quarto', 'POS'), ('banheiro', 'POS'), ('chuveiro', 'POS'), ('encomendas', 'POS'), ('check in', 'NEG'), ('check out', 'NEG'), ('vôo', 'NEG'), ('retornar', 'POS'), ('Hotel', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('chuveiro', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('chuveiro', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('chuveiro', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('chuveiro', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('chuveiro', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2076,6 +2351,31 @@
           <t>[('hotel', 'POS'), ('quartos', 'POS'), ('café da manhã', 'POS'), ('funcionários', 'POS'), ('internet', 'POS'), ('malas', 'NEG'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('quartos', 'POS'), ('café da manhã', 'POS'), ('funcionários', 'POS'), ('internet', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('quartos', 'POS'), ('café da manhã', 'POS'), ('funcionários', 'POS'), ('internet', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('quartos', 'POS'), ('café da manhã', 'POS'), ('funcionários', 'POS'), ('internet', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('quartos', 'POS'), ('café da manhã', 'POS'), ('funcionários', 'POS'), ('internet', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('quartos', 'POS'), ('café da manhã', 'POS'), ('funcionários', 'POS'), ('internet', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2213,6 +2513,31 @@
           <t>[('check in', 'NEG'), ('cama', 'POS'), ('quarto', 'POS'), ('espaço.Limpeza', 'POS'), ('organização', 'POS'), ('recepção', 'POS'), ('pontos turisticos', 'POS')]</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('quarto', 'POS'), ('Limpeza', 'POS'), ('organização', 'POS'), ('recepção', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('quarto', 'POS'), ('Limpeza', 'POS'), ('recepção', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('quarto', 'POS'), ('Limpeza', 'POS'), ('recepção', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('quarto', 'POS'), ('Limpeza', 'POS'), ('recepção', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('quarto', 'POS'), ('Limpeza', 'POS'), ('recepção', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2350,6 +2675,31 @@
           <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('estadia', 'POS'), ('termos encontrado', 'NEG'), ('meia', 'NEG'), ('faxina', 'NEG'), ('quarto', 'POS'), ('Zero', 'NEG'), ('cortinas', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2487,6 +2837,31 @@
           <t>[('nivel cultural', 'POS'), ('hotel', 'POS'), ('museu do louvre', 'POS'), ('museu de orsay', 'POS'), ('preço', 'POS'), ('recepçao', 'POS'), ('sala', 'POS'), ('café da manha', 'POS'), ('cidade', 'POS'), ('conhecer', 'POS')]</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>[('cidade', 'POS'), ('hotel', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>[('cidade', 'POS'), ('hotel', 'POS'), ('museu', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>[('cidade', 'POS'), ('hotel', 'POS'), ('museu', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>[('cidade', 'POS'), ('hotel', 'POS'), ('museu', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2624,6 +2999,31 @@
           <t>[('hotel', 'POS'), ('limpo', 'POS'), ('transfer', 'POS'), ('internet', 'POS'), ('academia', 'POS'), ('localização', 'POS'), ('lindo', 'POS')]</t>
         </is>
       </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'NEG'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('internet', 'POS'), ('localização', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('internet', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('internet', 'POS'), ('localização', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2761,6 +3161,31 @@
           <t>[('preço', 'POS'), ('hotel', 'POS'), ('metro', 'POS'), ('banheira', 'POS'), ('quarto', 'POS'), ('café da manhá', 'POS'), ('Hotel', 'POS'), ('Carrefour', 'POS'), ('água', 'POS'), ('sucos', 'POS'), ('lanches', 'POS'), ('Euro', 'POS')]</t>
         </is>
       </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('hotel', 'POS'), ('banheira', 'POS'), ('quarto', 'POS'), ('Hotel', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('hotel', 'POS'), ('banheira', 'POS'), ('quarto', 'POS'), ('Hotel', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('Hotel', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('Hotel', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('Hotel', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2898,6 +3323,31 @@
           <t>[('preço', 'POS'), ('serviço', 'POS'), ('conceito', 'POS'), ('Hotel', 'POS'), ('transportes', 'POS'), ('bus', 'POS'), ('metro', 'POS'), ('Centro Paris', 'POS'), ('Room Tip', 'POS'), ('último piso', 'POS'), ('comboio', 'POS')]</t>
         </is>
       </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('serviço', 'POS'), ('Hotel', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('serviço', 'POS'), ('Hotel', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('serviço', 'POS'), ('Hotel', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('serviço', 'POS'), ('Hotel', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('serviço', 'POS'), ('Hotel', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3035,6 +3485,31 @@
           <t>[('hotel', 'POS'), ('novidades eletrônicas', 'POS'), ('quarto', 'POS'), ('halloween', 'POS'), ('cidade', 'POS'), ('fantasias', 'POS'), ('visual', 'POS'), ('rua', 'POS')]</t>
         </is>
       </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('rua', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('rua', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('rua', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('rua', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3172,6 +3647,31 @@
           <t>[('ar', 'NEG'), ('Hotel', 'NEG'), ('fresta', 'NEG'), ('política', 'NEG'), ('comentário', 'NEG'), ('janela', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'NEG'), ('Hotel', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'NEG'), ('Hotel', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'NEG'), ('Hotel', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3309,6 +3809,31 @@
           <t>[('hotel', 'POS'), ('apartamento', 'POS'), ('limpo', 'POS'), ('reformado', 'POS'), ('remodelado', 'POS'), ('preço', 'POS'), ('custo x beneficio', 'POS'), ('novinho', 'POS')]</t>
         </is>
       </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('apartamento', 'POS'), ('hotel', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('apartamento', 'POS'), ('hotel', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('apartamento', 'POS'), ('hotel', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('apartamento', 'POS'), ('hotel', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3446,6 +3971,31 @@
           <t>[('localização', 'POS'), ('cocktail', 'POS'), ('concierge', 'POS'), ('quartos', 'POS'), ('decoração', 'POS'), ('limpo', 'POS'), ('jantares', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3583,6 +4133,31 @@
           <t>[('estação de metro', 'POS'), ('hotel', 'POS'), ('Cafe da manha', 'NEG'), ('atente', 'NEG'), ('fechamento', 'NEG'), ('frigobar nos Ibis', 'NEG'), ('conceito', 'POS'), ('falta de frigobar', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('frigobar', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('frigobar', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>[('frigobar', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('frigobar', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>[('frigobar', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3720,6 +4295,31 @@
           <t>[('preço', 'POS'), ('serviços', 'POS'), ('serviço de transfer aeroporto/hotel/aeroporto', 'POS'), ('taxi.Um', 'POS'), ('café da manhã', 'POS'), ('lençóis', 'POS'), ('frigobar', 'POS'), ('quartos', 'POS'), ('elevador', 'NEG'), ('serviço de quarto', 'POS'), ('comida', 'POS'), ('filé', 'POS'), ('Toalhas', 'POS'), ('ar condicionado', 'POS'), ('Hotel', 'POS'), ('pit stop', 'POS')]</t>
         </is>
       </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('preço', 'POS'), ('serviços', 'POS'), ('serviço', 'POS'), ('café da manhã', 'POS'), ('Toalhas', 'POS'), ('frigobar', 'POS'), ('serviço de quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('preço', 'POS'), ('café da manhã', 'POS'), ('Toalhas', 'POS'), ('serviço de quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('preço', 'POS'), ('café da manhã', 'POS'), ('Toalhas', 'POS'), ('frigobar', 'POS'), ('serviço de quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('preço', 'POS'), ('café da manhã', 'POS'), ('Toalhas', 'POS'), ('serviço de quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('preço', 'POS'), ('café da manhã', 'POS'), ('Toalhas', 'POS'), ('serviço de quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3857,6 +4457,31 @@
           <t>[('hotel', 'POS'), ('acomodações', 'POS'), ('centro comercial', 'POS'), ('restaurantes', 'POS'), ('café da manhã', 'POS'), ('atendente do restaurante', 'NEG'), ('comida', 'NEG'), ('recepcionistas', 'POS'), ('lojas', 'POS'), ('Bercy Vilage', 'POS'), ('mercado', 'POS'), ('depósitos de vinho', 'POS'), ('estação do metrô', 'POS')]</t>
         </is>
       </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>[('café da manhã', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>[('café da manhã', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>[('café da manhã', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>[('café da manhã', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3994,6 +4619,31 @@
           <t>[('Hotel de Negócios', 'POS'), ('localização', 'POS'), ('serviço de Concierge', 'POS'), ('conservado', 'POS'), ('manutenção', 'POS'), ('quartos', 'POS'), ('Café da manhã', 'NEG'), ('Concierge', 'POS'), ('limpeza', 'POS')]</t>
         </is>
       </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('limpeza', 'POS'), ('quartos', 'POS'), ('Café da manhã', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('limpeza', 'POS'), ('manutenção', 'POS'), ('quartos', 'POS'), ('Café da manhã', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('limpeza', 'POS'), ('quartos', 'POS'), ('Café da manhã', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('limpeza', 'POS'), ('quartos', 'POS'), ('Café da manhã', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('limpeza', 'POS'), ('quartos', 'POS'), ('Café da manhã', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4131,6 +4781,31 @@
           <t>[('transfer', 'POS'), ('trânsito', 'NEG'), ('quarto', 'NEG'), ('isolamento acústico', 'NEG'), ('Quarto', 'POS'), ('cama', 'POS'), ('Banheiro', 'POS'), ('Café da manhã', 'POS'), ('Equipe', 'POS'), ('atendimento', 'POS'), ('valor', 'POS'), ('av . Farrapos', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('Café da manhã', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('Café da manhã', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('cama', 'POS'), ('Café da manhã', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('cama', 'POS'), ('Café da manhã', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('cama', 'POS'), ('Café da manhã', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4268,6 +4943,31 @@
           <t>[('hotel', 'POS'), ('quartos', 'POS'), ('gosto', 'POS'), ('limpos', 'POS'), ('banheiro', 'NEG'), ('espaço', 'NEG'), ('atendentes', 'POS'), ('localização', 'POS'), ('preço', 'POS'), ('Paris', 'POS'), ('Recomendo', 'POS')]</t>
         </is>
       </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS'), ('localização', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS'), ('localização', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS'), ('localização', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS'), ('localização', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS'), ('localização', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4405,6 +5105,31 @@
           <t>[('Reservas', 'NEG'), ('quartos', 'NEG'), ('camas', 'NEG'), ('Cama', 'NEG'), ('recepção', 'NEG'), ('reserva', 'NEG'), ('confusão', 'NEG'), ('valores', 'NEG'), ('desorganização', 'NEG'), ('lugar', 'NEG'), ('dificuldade', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG'), ('camas', 'NEG'), ('Cama', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG'), ('camas', 'NEG'), ('Cama', 'NEG'), ('recepção', 'NEG'), ('valores', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>[('camas', 'NEG'), ('Cama', 'NEG'), ('recepção', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>[('camas', 'NEG'), ('Cama', 'NEG'), ('recepção', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>[('casal', 'NEG'), ('Cama', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4542,6 +5267,31 @@
           <t>[('Estadia', 'POS'), ('check-in', 'POS'), ('check-out', 'POS'), ('staff', 'POS'), ('simpático', 'POS'), ('pequeno-almoço', 'POS'), ('brunch', 'POS'), ('Internet wifi', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>[('Internet', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>[('Internet', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>[('Internet', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>[('Internet', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>[('Internet', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4679,6 +5429,31 @@
           <t>[('instalações', 'POS'), ('quartos', 'NEG'), ('luxo', 'NEU'), ('espaço', 'POS'), ('Relaxe', 'POS'), ('cidade', 'POS')]</t>
         </is>
       </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>[('custo', 'POS'), ('instalações', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('custo', 'POS'), ('instalações', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>[('instalações', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('instalações', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>[('custo', 'POS'), ('instalações', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4816,6 +5591,31 @@
           <t>[('hotel', 'POS'), ('quarto', 'POS'), ('camas', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('custo-benefício', 'POS'), ('hotéis de preço', 'NEG'), ('pão', 'POS')]</t>
         </is>
       </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('camas', 'POS'), ('café da manhã', 'POS'), ('preço', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('camas', 'POS'), ('café da manhã', 'POS'), ('preço', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('camas', 'POS'), ('café da manhã', 'POS'), ('preço', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('camas', 'POS'), ('café da manhã', 'POS'), ('preço', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>[('camas', 'POS'), ('café da manhã', 'POS'), ('preço', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4953,6 +5753,31 @@
           <t>[('Wynn', 'POS'), ('Belaggio', 'POS'), ('Veneza', 'POS'), ('Aria', 'POS'), ('Wynnn', 'POS'), ('Encore', 'POS'), ('quartos', 'POS'), ('serviço', 'POS'), ('comida', 'POS'), ('shows', 'POS'), ('festas', 'POS'), ('pools parties', 'POS'), ('boate XS', 'POS'), ('shows e festas', 'POS')]</t>
         </is>
       </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('serviço', 'POS'), ('comida', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('serviço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('serviço', 'POS'), ('comida', 'POS'), ('casal', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('serviço', 'POS'), ('casal', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('serviço', 'POS'), ('casal', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5090,6 +5915,31 @@
           <t>[('café da manhã', 'POS'), ('cookies', 'NEG'), ('lavanderia', 'NEG'), ('Custo benefício', 'POS'), ('opções', 'POS'), ('quartos', 'POS'), ('fim da tarde', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('café da manhã', 'POS'), ('lavanderia', 'NEG'), ('Custo', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('café da manhã', 'POS'), ('lavanderia', 'NEG'), ('Custo', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('café da manhã', 'POS'), ('lavanderia', 'NEG'), ('Custo', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('café da manhã', 'POS'), ('lavanderia', 'POS'), ('Custo', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('café da manhã', 'POS'), ('lavanderia', 'POS'), ('Custo', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5227,6 +6077,31 @@
           <t>[('hotel', 'POS'), ('quarto', 'POS'), ('banheiro', 'POS'), ('banheira', 'POS'), ('Aparência', 'POS'), ('Limpeza', 'POS'), ('cortesias', 'POS'), ('garrafinha de água', 'POS'), ('aparelho', 'POS'), ('ingredientes', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('metro', 'POS')]</t>
         </is>
       </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('banheira', 'POS'), ('Aparência', 'POS'), ('Limpeza', 'POS'), ('quarto', 'POS'), ('café da manhã', 'POS'), ('hotel', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('Aparência', 'POS'), ('Limpeza', 'POS'), ('quarto', 'POS'), ('café da manhã', 'POS'), ('hotel', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('Aparência', 'POS'), ('Limpeza', 'POS'), ('café da manhã', 'POS'), ('hotel', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('Aparência', 'POS'), ('Limpeza', 'POS'), ('quarto', 'POS'), ('café da manhã', 'POS'), ('hotel', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('banheira', 'POS'), ('Limpeza', 'POS'), ('café da manhã', 'POS'), ('hotel', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5364,6 +6239,31 @@
           <t>[('funcionarios', 'POS'), ('localização', 'POS'), ('quarto', 'NEG'), ('minibar', 'NEG'), ('quartos', 'NEG'), ('atendimento', 'POS')]</t>
         </is>
       </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quartos', 'NEG'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quartos', 'NEG'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'NEG'), ('quartos', 'NEG'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('quartos', 'NEG'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quartos', 'NEG'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5501,6 +6401,31 @@
           <t>[('Ar Condicionado', 'NEG'), ('climatização', 'NEG'), ('janelas', 'NEG'), ('pó', 'NEG'), ('dias quentes', 'NEG'), ('poluição', 'NEG'), ('pó preto', 'NEG'), ('piso dos quartos', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>[('carpete', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>[('piso', 'NEG'), ('quartos', 'NEG'), ('carpete', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>[('piso', 'NEG'), ('carpete', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5638,6 +6563,31 @@
           <t>[('pessoas', 'POS'), ('café da manhã', 'POS'), ('turistas', 'POS'), ('quartos', 'POS'), ('ambiente', 'POS'), ('funcionários', 'POS'), ('centro', 'POS'), ('inglês', 'NEG'), ('hotel', 'NEG'), ('metro', 'POS')]</t>
         </is>
       </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>[('café da manhã', 'POS'), ('quartos', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>[('café da manhã', 'POS'), ('quartos', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>[('café da manhã', 'POS'), ('quartos', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>[('café da manhã', 'POS'), ('quartos', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>[('café da manhã', 'POS'), ('quartos', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5775,6 +6725,31 @@
           <t>[('hotel', 'POS'), ('empregados', 'POS'), ('café-da-manhã', 'NEG'), ('Paris', 'POS'), ('quartos', 'POS')]</t>
         </is>
       </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('empregados', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5912,6 +6887,31 @@
           <t>[('hotel', 'NEG'), ('manutenção.Trata-se', 'NEG'), ('construção', 'NEG'), ('corredores', 'NEG'), ('carpetes', 'NEG'), ('pintura', 'NEG'), ('banheiros', 'NEG'), ('reforma', 'NEG'), ('revitalização', 'NEG'), ('preservação', 'NEG'), ('espaços', 'NEG'), ('iluminados', 'NEG'), ('paredes', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('construção', 'NEG'), ('corredores', 'NEG'), ('carpetes', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('corredores', 'NEG'), ('carpetes', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('corredores', 'NEG'), ('carpetes', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>[('corredores', 'NEG'), ('carpetes', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('corredores', 'NEG'), ('carpetes', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6049,6 +7049,31 @@
           <t>[('localização', 'POS'), ('serviço', 'POS'), ('funcionários', 'POS'), ('quartos', 'POS'), ('hotel', 'POS'), ('atrações', 'POS')]</t>
         </is>
       </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('funcionários', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('funcionários', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('funcionários', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('funcionários', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('funcionários', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6186,6 +7211,31 @@
           <t>[('hotel', 'POS'), ('atrações', 'POS'), ('café da manhã', 'POS'), ('internet', 'POS'), ('quarto', 'POS'), ('frigobar', 'POS'), ('janelas', 'POS'), ('banheiro', 'POS'), ('atendimento', 'POS'), ('atendente', 'NEU'), ('metro St Lazare', 'POS')]</t>
         </is>
       </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('internet', 'POS'), ('quarto', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('internet', 'POS'), ('quarto', 'POS'), ('frigobar', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('internet', 'POS'), ('quarto', 'POS'), ('frigobar', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('internet', 'POS'), ('quarto', 'POS'), ('frigobar', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('internet', 'POS'), ('quarto', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6323,6 +7373,31 @@
           <t>[('localização', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('banheiro', 'NEG'), ('chuveiro', 'NEG'), ('elevador', 'NEG'), ('custo', 'POS'), ('Barulho', 'NEG'), ('rua', 'POS')]</t>
         </is>
       </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('quarto', 'NEG'), ('chuveiro', 'NEG'), ('elevador', 'NEG'), ('rua', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('chuveiro', 'NEG'), ('elevador', 'NEG'), ('rua', 'NEG'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('quarto', 'NEG'), ('chuveiro', 'NEG'), ('elevador', 'NEG'), ('rua', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('quarto', 'NEG'), ('chuveiro', 'NEG'), ('elevador', 'NEG'), ('rua', 'NEG'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('chuveiro', 'NEG'), ('elevador', 'NEG'), ('rua', 'NEG'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6460,6 +7535,31 @@
           <t>[('hotel', 'NEG'), ('local', 'NEG'), ('instalações', 'NEG'), ('limpeza', 'NEG'), ('aspecto', 'NEG'), ('cheiro', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('instalações', 'NEG'), ('limpeza', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('instalações', 'NEG'), ('limpeza', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('instalações', 'NEG'), ('limpeza', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('instalações', 'NEG'), ('limpeza', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('instalações', 'NEG'), ('limpeza', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6597,6 +7697,31 @@
           <t>[('quarto', 'POS'), ('cama', 'POS'), ('limpo', 'POS'), ('carpete', 'NEG'), ('reserva', 'POS'), ('calefacao', 'NEU'), ('Localizacao', 'POS'), ('restaurantes', 'POS'), ('teatro', 'POS'), ('metro', 'POS'), ('talheres', 'NEG'), ('microondas', 'NEG'), ('cafeteira', 'NEG'), ('Recomendo', 'POS'), ('cheiro', 'NEG'), ('mofo', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('carpete', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('carpete', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('cama', 'POS'), ('carpete', 'NEG'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('carpete', 'POS'), ('Localizacao', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('carpete', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6734,6 +7859,31 @@
           <t>[('funcionários', 'NEG'), ('arrumação dos quartos', 'NEG'), ('localização', 'POS'), ('Sacre Coeur', 'POS'), ('restaurantes', 'POS'), ('relação custo-benefício', 'POS'), ('metro', 'POS'), ('cafes', 'POS')]</t>
         </is>
       </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>[('funcionários', 'NEG'), ('quartos', 'NEG'), ('localização', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>[('funcionários', 'NEG'), ('quartos', 'NEG'), ('localização', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>[('funcionários', 'NEG'), ('localização', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>[('funcionários', 'NEG'), ('quartos', 'NEG'), ('localização', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>[('funcionários', 'NEG'), ('quartos', 'NEG'), ('localização', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6871,6 +8021,31 @@
           <t>[('hotel', 'POS'), ('cidade', 'POS'), ('quarto', 'POS'), ('equipe', 'POS'), ('centro', 'POS'), ('negócios', 'POS'), ('vida', 'POS')]</t>
         </is>
       </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7008,6 +8183,31 @@
           <t>[('escolha', 'POS'), ('tranquilo', 'POS'), ('localização', 'POS'), ('cama', 'POS'), ('ducha', 'POS'), ('limpeza', 'POS'), ('recepcionistas', 'POS'), ('café da manhã', 'NEG'), ('suítes', 'POS'), ('silencioso', 'POS'), ('banho', 'NEG'), ('suítes deluxe', 'POS')]</t>
         </is>
       </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('cama', 'POS'), ('ducha', 'POS'), ('limpeza', 'POS'), ('cama', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('cama', 'POS'), ('ducha', 'POS'), ('limpeza', 'POS'), ('cama', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('cama', 'POS'), ('ducha', 'POS'), ('limpeza', 'POS'), ('cama', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('cama', 'POS'), ('ducha', 'POS'), ('limpeza', 'POS'), ('cama', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('cama', 'POS'), ('ducha', 'POS'), ('limpeza', 'POS'), ('cama', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7145,6 +8345,31 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('restaurante', 'POS'), ('vista', 'POS'), ('bell man', 'NEG'), ('estrutura', 'POS')]</t>
         </is>
       </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('serviço', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('serviço', 'NEG'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('serviço', 'NEG'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('serviço', 'NEG'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('serviço', 'NEG'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7282,6 +8507,31 @@
           <t>[('Hotel', 'POS'), ('localização', 'POS'), ('atendimento', 'POS'), ('Shopping', 'POS'), ('room-service', 'NEG'), ('nutricionista', 'POS')]</t>
         </is>
       </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7419,6 +8669,31 @@
           <t>[('localização', 'NEG'), ('hotel', 'POS'), ('avenida', 'NEG'), ('café', 'POS'), ('movimento', 'POS'), ('barulho', 'NEG'), ('acomodações', 'POS'), ('ônibus', 'POS')]</t>
         </is>
       </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>[('localização', 'NEG'), ('avenida', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>[('localização', 'NEG'), ('hotel', 'NEG'), ('avenida', 'NEG'), ('hotel', 'NEG'), ('hotel', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>[('localização', 'NEG'), ('hotel', 'NEG'), ('avenida', 'NEG'), ('hotel', 'NEG'), ('hotel', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>[('localização', 'NEG'), ('hotel', 'NEG'), ('avenida', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>[('localização', 'NEG'), ('avenida', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7556,6 +8831,31 @@
           <t>[('Apartamentos', 'POS'), ('camas', 'POS'), ('chuveiro', 'POS'), ('Café', 'POS'), ('café', 'POS'), ('cozinha', 'POS'), ('funcionário', 'POS'), ('quarto', 'POS'), ('chá', 'POS'), ('chocolate quente', 'POS'), ('Internet', 'POS'), ('garrafas de água', 'POS'), ('dia', 'POS'), ('Recomendo', 'POS')]</t>
         </is>
       </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('Apartamentos', 'POS'), ('camas', 'POS'), ('chuveiro', 'POS'), ('Café da manhã', 'POS'), ('cozinha', 'POS'), ('hotel', 'POS'), ('Internet', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('Apartamentos', 'POS'), ('camas', 'POS'), ('chuveiro', 'POS'), ('Café da manhã', 'POS'), ('cozinha', 'POS'), ('hotel', 'POS'), ('Internet', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('Apartamentos', 'POS'), ('camas', 'POS'), ('chuveiro', 'POS'), ('Café da manhã', 'POS'), ('cozinha', 'POS'), ('hotel', 'POS'), ('Internet', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('Apartamentos', 'NEG'), ('camas', 'POS'), ('chuveiro', 'POS'), ('Café da manhã', 'POS'), ('hotel', 'POS'), ('Internet', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('Apartamentos', 'POS'), ('camas', 'POS'), ('chuveiro', 'POS'), ('Café da manhã', 'POS'), ('hotel', 'POS'), ('Internet', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7693,6 +8993,31 @@
           <t>[('quartos', 'POS'), ('limpo', 'POS'), ('confortável', 'POS'), ('Circ du Soleil', 'POS'), ('hotel', 'POS'), ('áreas de lazer', 'NEG'), ('resort fees', 'NEG'), ('credicard', 'NEG'), ('taxa', 'NEG'), ('tickets', 'POS')]</t>
         </is>
       </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('hotel', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('hotel', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('hotel', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('hotel', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('hotel', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7830,6 +9155,31 @@
           <t>[('Quarto', 'POS'), ('Wi-Fi', 'POS'), ('friforifico', 'POS'), ('microondas', 'POS'), ('máquina de café', 'POS'), ('Localização', 'POS'), ('rockefeller center', 'POS'), ('Staff', 'POS'), ('computadores', 'POS'), ('impressoras', 'POS'), ('Boarding pass', 'POS'), ('andar', 'POS'), ('máquina de água', 'POS'), ('relação preço', 'POS'), ('garrafas', 'POS'), ('5th Avenue', 'POS')]</t>
         </is>
       </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>[('Quarto', 'POS'), ('Localização', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>[('Quarto', 'POS'), ('Localização', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>[('Quarto', 'POS'), ('Localização', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>[('Localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>[('Quarto', 'POS'), ('Localização', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7967,6 +9317,31 @@
           <t>[('Hotel', 'POS'), ('limpo', 'POS'), ('lindo', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('banheiro', 'POS'), ('vista', 'POS'), ('hotel', 'POS'), ('piscina', 'POS'), ('shows', 'POS'), ('golfinhos', 'POS'), ('cascata', 'POS'), ('tigres', 'POS'), ('drinks', 'POS')]</t>
         </is>
       </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('hotel', 'POS'), ('piscina', 'POS'), ('hotéis', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('hotel', 'POS'), ('piscina', 'POS'), ('hotéis', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('hotel', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('hotel', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('hotel', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8104,6 +9479,31 @@
           <t>[('quarto', 'NEG'), ('mofo', 'NEG'), ('tv', 'NEG'), ('café da manhã', 'POS'), ('portaria', 'POS'), ('hospedagem', 'NEG'), ('quartos', 'NEG'), ('Roupas de cama', 'POS'), ('porta do box do banheiro', 'NEG'), ('privada', 'NEG'), ('janela do banheiro', 'NEG'), ('crianças', 'NEG'), ('banho', 'NEG'), ('hotel', 'NEG'), ('preço', 'NEG'), ('higiene', 'NEG'), ('bonita', 'POS'), ('organizada', 'POS')]</t>
         </is>
       </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('tv', 'NEG'), ('hotel', 'NEG'), ('café da manhã', 'POS'), ('preço', 'NEG'), ('quartos', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('tv', 'NEG'), ('hotel', 'NEG'), ('café da manhã', 'POS'), ('preço', 'NEG'), ('quartos', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('tv', 'NEG'), ('hotel', 'NEG'), ('café da manhã', 'POS'), ('preço', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('tv', 'NEG'), ('hotel', 'NEG'), ('café da manhã', 'POS'), ('preço', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('tv', 'NEG'), ('hotel', 'NEG'), ('café da manhã', 'POS'), ('preço', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8241,6 +9641,31 @@
           <t>[('Tropicana', 'POS'), ('Quarto', 'POS'), ('cama', 'POS'), ('limpo', 'POS'), ('banheiro', 'POS'), ('cassino', 'POS'), ('maquininhas', 'POS')]</t>
         </is>
       </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>[('Quarto', 'POS'), ('cama', 'POS'), ('banheira', 'NEG'), ('cassino', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>[('Quarto', 'POS'), ('cama', 'POS'), ('banheira', 'NEG'), ('cassino', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>[('Quarto', 'POS'), ('cama', 'POS'), ('banheira', 'NEG'), ('cassino', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>[('Quarto', 'POS'), ('cama', 'POS'), ('banheira', 'NEG'), ('cassino', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>[('Quarto', 'POS'), ('cama', 'POS'), ('banheira', 'NEG'), ('cassino', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8378,6 +9803,31 @@
           <t>[('quartos', 'NEG'), ('local para guardar roupas', 'NEG'), ('café-da-manhã', 'NEG'), ('acesso wi-fi', 'NEG'), ('centro', 'POS'), ('bares', 'POS'), ('hotéis', 'POS'), ('shoppings', 'POS'), ('aeroporto', 'POS')]</t>
         </is>
       </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG'), ('shoppings', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8515,6 +9965,31 @@
           <t>[('recepção', 'POS'), ('portugues', 'POS'), ('serviço de quarto', 'NEG'), ('frigobar', 'NEG'), ('suite', 'POS'), ('porta de correr', 'POS'), ('café da manhã', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>[('recepção', 'POS'), ('recepção', 'POS'), ('serviço de quarto', 'NEG'), ('casal', 'POS'), ('café da manhã', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>[('recepção', 'POS'), ('recepção', 'POS'), ('serviço de quarto', 'NEG'), ('café da manhã', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>[('recepção', 'POS'), ('recepção', 'POS'), ('quarto', 'NEG'), ('casal', 'POS'), ('café da manhã', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>[('recepção', 'POS'), ('recepção', 'POS'), ('serviço de quarto', 'NEG'), ('casal', 'POS'), ('café da manhã', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>[('recepção', 'POS'), ('recepção', 'POS'), ('serviço de quarto', 'NEG'), ('casal', 'POS'), ('café da manhã', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8652,6 +10127,31 @@
           <t>[('hotel', 'POS'), ('Atendimento', 'POS'), ('café da manhã', 'POS'), ('estadia', 'POS'), ('Localização', 'POS'), ('Angela', 'POS'), ('recepcionista', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS'), ('Recomendo', 'POS')]</t>
         </is>
       </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Atendimento', 'POS'), ('café da manhã', 'POS'), ('Localização', 'POS'), ('hotel', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Atendimento', 'POS'), ('café da manhã', 'POS'), ('Localização', 'POS'), ('hotel', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Atendimento', 'POS'), ('café da manhã', 'POS'), ('Localização', 'POS'), ('hotel', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>[('Atendimento', 'POS'), ('café da manhã', 'POS'), ('Localização', 'POS'), ('hotel', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Atendimento', 'POS'), ('café da manhã', 'POS'), ('Localização', 'POS'), ('hotel', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8789,6 +10289,31 @@
           <t>[('facilidade de transporte', 'POS'), ('equipe', 'POS'), ('quartos', 'NEG'), ('banheiro', 'NEG'), ('custo x benefício', 'POS'), ('Hotel', 'POS'), ('limpo', 'POS'), ('camas', 'POS'), ('Máquina de café', 'POS'), ('chá', 'POS')]</t>
         </is>
       </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'NEG'), ('Hotel', 'POS'), ('camas', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'NEG'), ('Hotel', 'POS'), ('camas', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'NEG'), ('Hotel', 'POS'), ('camas', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'NEG'), ('Hotel', 'POS'), ('camas', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'NEG'), ('Hotel', 'POS'), ('camas', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8926,6 +10451,31 @@
           <t>[('hotel', 'NEG'), ('reforma', 'NEG'), ('atendimento', 'POS'), ('café da manhã', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('hotel', 'NEG'), ('atendimento', 'POS'), ('café da manhã', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('hotel', 'NEG'), ('atendimento', 'POS'), ('café da manhã', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('hotel', 'NEG'), ('atendimento', 'POS'), ('café da manhã', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('hotel', 'NEG'), ('atendimento', 'POS'), ('café da manhã', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('hotel', 'NEG'), ('atendimento', 'POS'), ('café da manhã', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9063,6 +10613,31 @@
           <t>[('Hotel', 'POS'), ('quartos', 'POS'), ('roupa de cama', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('tarifas', 'POS'), ('vista', 'POS')]</t>
         </is>
       </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'POS'), ('roupa de cama', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'POS'), ('roupa de cama', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'POS'), ('roupa de cama', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'POS'), ('roupa de cama', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'POS'), ('roupa de cama', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9200,6 +10775,31 @@
           <t>[('localização', 'POS'), ('linha do ônibus', 'POS'), ('estação do metrô', 'POS'), ('barulho de carros', 'NEG'), ('padaria', 'POS'), ('supermercado', 'POS'), ('apartamento', 'NEU')]</t>
         </is>
       </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>[('custo', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>[('custo', 'POS'), ('localização', 'POS'), ('apartamento', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>[('custo', 'POS'), ('localização', 'POS'), ('apartamento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>[('custo', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>[('custo', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9337,6 +10937,31 @@
           <t>[('experiência', 'POS'), ('evento', 'POS'), ('valor para a estrutura do hotel', 'NEG'), ('box do banheiro', 'NEG'), ('quarto', 'NEG'), ('hotéis', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9474,6 +11099,31 @@
           <t>[('viagem', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('limpo', 'POS'), ('silencioso', 'POS'), ('charmoso', 'POS'), ('decoração', 'POS'), ('locomoção', 'POS'), ('orientação', 'POS'), ('empregados', 'POS'), ('prestativos', 'POS'), ('gentis', 'POS')]</t>
         </is>
       </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9611,6 +11261,31 @@
           <t>[('hotel', 'POS'), ('Quarto', 'POS'), ('banheiro', 'POS'), ('metrô', 'POS'), ('Shake Shacks', 'POS'), ('Recepcionistas', 'POS'), ('César', 'POS'), ('frigobar', 'NEG'), ('serviço de entrega de pacotes', 'POS')]</t>
         </is>
       </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Quarto', 'POS'), ('frigobar', 'NEG'), ('hotel', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Quarto', 'POS'), ('frigobar', 'NEG'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Quarto', 'POS'), ('frigobar', 'NEG'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Quarto', 'POS'), ('frigobar', 'NEG'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Quarto', 'POS'), ('frigobar', 'NEG'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9748,6 +11423,31 @@
           <t>[('localização', 'POS'), ('restaurantes', 'POS'), ('centro', 'POS'), ('Quarto', 'POS'), ('banheiro', 'NEG'), ('pro', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('Café da manhã', 'POS'), ('Quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('Café da manhã', 'POS'), ('Quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('Café da manhã', 'POS'), ('Quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('Café da manhã', 'POS'), ('Quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('Café da manhã', 'POS'), ('Quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9885,6 +11585,31 @@
           <t>[('hotel', 'POS'), ('strip', 'POS'), ('Funcionários', 'POS'), ('Quartos', 'POS'), ('quarto', 'POS'), ('vista para o lago', 'POS'), ('check in', 'POS'), ('check out', 'POS'), ('frontais', 'POS'), ('vista das fontes', 'POS')]</t>
         </is>
       </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Funcionários', 'POS'), ('Quartos', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Funcionários', 'POS'), ('Quartos', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Funcionários', 'POS'), ('Quartos', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Funcionários', 'POS'), ('Quartos', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Funcionários', 'POS'), ('Quartos', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10022,6 +11747,31 @@
           <t>[('quartos', 'POS'), ('check in', 'POS'), ('zoológico', 'POS'), ('alimentação', 'POS'), ('estacionamento', 'POS'), ('vistas', 'POS')]</t>
         </is>
       </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('estacionamento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('estacionamento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('estacionamento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('estacionamento', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('estacionamento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10159,6 +11909,31 @@
           <t>[('quartos', 'NEG'), ('serviço', 'POS'), ('preço', 'POS'), ('hotel', 'POS'), ('Área', 'POS'), ('torre', 'POS'), ('Internet', 'NEU'), ('recepção', 'POS'), ('funcionários', 'POS'), ('padrão Ibis', 'POS'), ('Paris', 'POS'), ('farmácias', 'POS'), ('restaurantes', 'POS'), ('supermercado', 'POS')]</t>
         </is>
       </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG'), ('serviço', 'POS'), ('preço', 'POS'), ('Internet', 'POS'), ('recepção', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>[('padrão', 'POS'), ('quartos', 'NEG'), ('serviço', 'NEG'), ('preço', 'POS'), ('hotel', 'POS'), ('Internet', 'POS'), ('recepção', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>[('padrão', 'POS'), ('quartos', 'NEG'), ('serviço', 'POS'), ('preço', 'POS'), ('hotel', 'POS'), ('Internet', 'POS'), ('recepção', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>[('padrão', 'POS'), ('quartos', 'NEG'), ('serviço', 'POS'), ('preço', 'POS'), ('hotel', 'POS'), ('Internet', 'POS'), ('recepção', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG'), ('serviço', 'NEG'), ('preço', 'POS'), ('hotel', 'POS'), ('Internet', 'POS'), ('recepção', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10296,6 +12071,31 @@
           <t>[('piscina', 'POS'), ('hotel', 'POS'), ('Cassino', 'NEG'), ('cassino', 'POS'), ('festas', 'POS'), ('bom', 'POS'), ('confortável', 'POS')]</t>
         </is>
       </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>[('piscina', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('Cassino', 'POS'), ('cassino', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>[('piscina', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('Cassino', 'POS'), ('cassino', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>[('piscina', 'POS'), ('hotel', 'POS'), ('Cassino', 'POS'), ('cassino', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>[('piscina', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('Cassino', 'POS'), ('cassino', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>[('piscina', 'POS'), ('hotel', 'POS'), ('Cassino', 'POS'), ('cassino', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10433,6 +12233,31 @@
           <t>[('banheiro', 'NEG'), ('Paris', 'POS'), ('economia', 'POS'), ('metro', 'POS'), ('RER', 'POS'), ('Hotel', 'POS'), ('convenções', 'NEU'), ('Estacionamento', 'NEG'), ('eventos', 'NEU'), ('acesso', 'POS'), ('Vizinhança', 'POS'), ('contagem', 'POS'), ('rua', 'POS'), ('lobby', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'POS'), ('Hotel', 'NEG'), ('Estacionamento', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'POS'), ('Hotel', 'NEG'), ('Estacionamento', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('Hotel', 'NEG'), ('Estacionamento', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'NEG'), ('Hotel', 'NEG'), ('Estacionamento', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'NEG'), ('quartos', 'NEG'), ('Hotel', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10570,6 +12395,31 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('banheiro', 'POS'), ('funcionários', 'POS'), ('Hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('ruas', 'POS'), ('hotel', 'POS'), ('cama', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('ruas', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('ruas', 'POS'), ('hotel', 'POS'), ('cama', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('cama', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('ruas', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10707,6 +12557,31 @@
           <t>[('localização', 'POS'), ('pontos turísticos', 'POS'), ('área', 'POS'), ('shopping', 'POS'), ('metrô', 'POS'), ('funcionários', 'POS'), ('banheiro', 'NEG'), ('vaso sanitário', 'NEG'), ('chuveiro', 'POS'), ('banheira', 'POS'), ('pia', 'POS'), ('bares', 'POS'), ('restaurantes', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('funcionários', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('funcionários', 'POS'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('funcionários', 'POS'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('funcionários', 'POS'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('funcionários', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10844,6 +12719,31 @@
           <t>[('hotel', 'POS'), ('cobertura', 'POS'), ('vista', 'POS'), ('quarto', 'POS'), ('localização', 'POS'), ('barulho', 'NEG'), ('movimento no térre', 'NEG'), ('criançs', 'NEG'), ('carrinhos d bebe', 'NEG'), ('sacolas de compras', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('quarto', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('ruas', 'NEG'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('quarto', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10981,6 +12881,31 @@
           <t>[('supermercado', 'POS'), ('lojas', 'POS'), ('estrutura', 'NEG'), ('atendimento', 'POS'), ('estrutura física', 'NEG'), ('elevador', 'NEG'), ('custo beneficio', 'POS'), ('shopping', 'POS'), ('ponto de taxi', 'POS')]</t>
         </is>
       </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>[('atendimento', 'POS'), ('hotel', 'NEG'), ('elevador', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>[('atendimento', 'POS'), ('hotel', 'NEG'), ('elevador', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>[('atendimento', 'POS'), ('hotel', 'NEG'), ('elevador', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>[('centro', 'POS'), ('atendimento', 'POS'), ('hotel', 'NEG'), ('elevador', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>[('atendimento', 'POS'), ('hotel', 'NEG'), ('elevador', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11118,6 +13043,31 @@
           <t>[('estadia', 'POS'), ('hotel', 'POS'), ('bar', 'POS'), ('atendimento', 'POS'), ('restaurante', 'POS'), ('localização', 'POS'), ('musicais.Os', 'POS'), ('decorados', 'POS'), ('piscina', 'NEG'), ('Time Square', 'POS'), ('vista', 'POS'), ('quarto', 'POS'), ('W de Miami', 'POS')]</t>
         </is>
       </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('localização', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('bar', 'POS'), ('atendimento', 'POS'), ('restaurante', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('localização', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11255,6 +13205,31 @@
           <t>[('hotel', 'POS'), ('funcionarios', 'POS'), ('restaurante', 'POS')]</t>
         </is>
       </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11392,6 +13367,31 @@
           <t>[('antigo', 'NEG'), ('quarto', 'NEG'), ('carpete', 'NEG'), ('Wifi', 'POS'), ('papel de parede', 'NEG'), ('hotéis', 'NEG'), ('reforma', 'NEG'), ('velho', 'NEG'), ('TUDO', 'POS')]</t>
         </is>
       </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>[('carpete', 'NEG'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>[('carpete', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>[('papel', 'NEG'), ('carpete', 'NEG'), ('quarto', 'NEG'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('carpete', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('carpete', 'NEG'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11529,6 +13529,31 @@
           <t>[('atendimento', 'POS'), ('quarto', 'POS'), ('tamanho', 'POS'), ('bar', 'POS'), ('entretenimento', 'POS'), ('proximidades', 'POS'), ('café', 'NEG'), ('mini cozinha', 'POS'), ('Spa', 'NEG'), ('piscina', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('cozinha', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('cozinha', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('cozinha', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('cozinha', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11666,6 +13691,31 @@
           <t>[('hotel', 'POS'), ('quarto', 'POS'), ('vista', 'POS'), ('Quarto', 'POS'), ('frigobar', 'NEG'), ('decoraçao', 'NEG'), ('roupas', 'NEG'), ('fotos', 'NEG')]</t>
         </is>
       </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('Quarto', 'POS'), ('hotel', 'NEG'), ('quarto', 'NEG'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('Quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('Quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('Quarto', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('hotel', 'NEG'), ('quarto', 'NEG'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11803,6 +13853,31 @@
           <t>[('localização', 'POS'), ('paragem de autocarro', 'POS'), ('Musée du Louvre', 'POS'), ('estações de metro', 'POS'), ('quartos', 'NEG'), ('ar condicionado', 'NEG'), ('Staff do Hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11940,6 +14015,31 @@
           <t>[('localização', 'POS'), ('receptividade', 'POS'), ('prédio', 'POS'), ('cheiro', 'NEG'), ('internet', 'POS'), ('acesso', 'POS')]</t>
         </is>
       </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('funcionários', 'POS'), ('internet', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('funcionários', 'POS'), ('prédio', 'POS'), ('internet', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('funcionários', 'POS'), ('corredor', 'NEG'), ('internet', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('funcionários', 'POS'), ('corredor', 'NEG'), ('internet', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('funcionários', 'POS'), ('corredor', 'NEG'), ('internet', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12075,6 +14175,31 @@
       <c r="AA85" t="inlineStr">
         <is>
           <t>[('hotel', 'POS'), ('quarto', 'POS'), ('banheiro', 'POS'), ('rua', 'POS'), ('funcionários', 'POS'), ('localização', 'POS'), ('pontos turísticos', 'POS'), ('relação custo-benefício', 'POS'), ('café da manhã', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('rua', 'POS'), ('funcionários', 'POS'), ('localização', 'POS'), ('custo-benefício', 'POS'), ('café da manhã', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('rua', 'POS'), ('funcionários', 'POS'), ('localização', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('rua', 'POS'), ('funcionários', 'POS'), ('localização', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('rua', 'POS'), ('funcionários', 'POS'), ('localização', 'POS'), ('custo-benefício', 'POS'), ('café da manhã', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('hotel', 'POS'), ('rua', 'POS'), ('funcionários', 'POS'), ('localização', 'POS'), ('custo-benefício', 'POS')]</t>
         </is>
       </c>
     </row>

--- a/data/hotel22/test.xlsx
+++ b/data/hotel22/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF85"/>
+  <dimension ref="A1:AG85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,6 +594,11 @@
           <t>hotel22-bert-base-portuguese-cased-e2eabsa-gru</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>hotel22-bert-base-portuguese-cased-e2eabsa-committee-voting</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -756,6 +761,11 @@
           <t>[('lojas', 'POS'), ('limpeza', 'POS'), ('custo-benefício', 'POS')]</t>
         </is>
       </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('lojas', 'POS'), ('limpeza', 'POS'), ('quartos', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -918,6 +928,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('café da manhã', 'POS'), ('rua', 'POS')]</t>
         </is>
       </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('café da manhã', 'POS'), ('rua', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1080,6 +1095,11 @@
           <t>[('Localização', 'POS'), ('atendimento', 'POS'), ('serviços', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('Quarto', 'POS'), ('hotel', 'POS'), ('Café da manhã', 'POS')]</t>
         </is>
       </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>[('Localização', 'POS'), ('atendimento', 'POS'), ('serviços', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('Café da manhã', 'POS'), ('Quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1242,6 +1262,11 @@
           <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('Hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('preço', 'POS'), ('piscinas', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('preço', 'POS'), ('piscinas', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1404,6 +1429,11 @@
           <t>[('quarto', 'POS'), ('cama', 'POS'), ('banheira', 'POS'), ('serviço', 'POS'), ('piscina', 'POS')]</t>
         </is>
       </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('cama', 'POS'), ('serviço', 'POS'), ('piscina', 'POS'), ('banheira', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1566,6 +1596,11 @@
           <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('internet', 'POS')]</t>
         </is>
       </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('internet', 'POS'), ('cama', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1728,6 +1763,11 @@
           <t>[('preço', 'POS'), ('localização', 'POS'), ('chuveiro', 'POS'), ('atendimento', 'POS')]</t>
         </is>
       </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('localização', 'POS'), ('chuveiro', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1890,6 +1930,11 @@
           <t>[('elevador', 'NEG'), ('estacionamento', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>[('elevador', 'NEG'), ('quartos', 'NEG'), ('estacionamento', 'NEG'), ('localização', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2052,6 +2097,11 @@
           <t>[('quarto', 'NEG'), ('atendimento', 'POS'), ('hotel', 'POS'), ('internet', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('atendimento', 'POS'), ('hotel', 'POS'), ('internet', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2214,6 +2264,11 @@
           <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('chuveiro', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('chuveiro', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2376,6 +2431,11 @@
           <t>[('hotel', 'POS'), ('hotel', 'POS'), ('quartos', 'POS'), ('café da manhã', 'POS'), ('funcionários', 'POS'), ('internet', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS'), ('café da manhã', 'POS'), ('funcionários', 'POS'), ('internet', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2538,6 +2598,11 @@
           <t>[('cama', 'POS'), ('quarto', 'POS'), ('Limpeza', 'POS'), ('recepção', 'POS')]</t>
         </is>
       </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('quarto', 'POS'), ('Limpeza', 'POS'), ('recepção', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2700,6 +2765,11 @@
           <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2862,6 +2932,11 @@
           <t>[('cidade', 'POS'), ('hotel', 'POS'), ('museu', 'POS'), ('preço', 'POS')]</t>
         </is>
       </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>[('cidade', 'POS'), ('hotel', 'POS'), ('preço', 'POS'), ('museu', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3024,6 +3099,11 @@
           <t>[('hotel', 'POS'), ('internet', 'POS'), ('localização', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'NEG'), ('internet', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3186,6 +3266,11 @@
           <t>[('preço', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('Hotel', 'POS'), ('Hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('hotel', 'POS'), ('banheira', 'POS'), ('quarto', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3348,6 +3433,11 @@
           <t>[('preço', 'POS'), ('serviço', 'POS'), ('Hotel', 'POS'), ('Hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('serviço', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3510,6 +3600,11 @@
           <t>[('hotel', 'POS'), ('hotel', 'POS'), ('rua', 'POS')]</t>
         </is>
       </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('rua', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3672,6 +3767,11 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3834,6 +3934,11 @@
           <t>[('hotel', 'POS'), ('apartamento', 'POS'), ('hotel', 'POS'), ('preço', 'POS')]</t>
         </is>
       </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('apartamento', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3996,6 +4101,11 @@
           <t>[('localização', 'POS'), ('quartos', 'POS')]</t>
         </is>
       </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4158,6 +4268,11 @@
           <t>[('frigobar', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('frigobar', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4320,6 +4435,11 @@
           <t>[('Hotel', 'POS'), ('preço', 'POS'), ('café da manhã', 'POS'), ('Toalhas', 'POS'), ('serviço de quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('preço', 'POS'), ('café da manhã', 'POS'), ('Toalhas', 'POS'), ('serviço de quarto', 'POS'), ('frigobar', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4482,6 +4602,11 @@
           <t>[('café da manhã', 'POS')]</t>
         </is>
       </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4644,6 +4769,11 @@
           <t>[('Hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('limpeza', 'POS'), ('quartos', 'POS'), ('Café da manhã', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('limpeza', 'POS'), ('manutenção', 'POS'), ('quartos', 'POS'), ('Café da manhã', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4806,6 +4936,11 @@
           <t>[('quarto', 'NEG'), ('cama', 'POS'), ('Café da manhã', 'POS'), ('atendimento', 'POS')]</t>
         </is>
       </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('Café da manhã', 'POS'), ('atendimento', 'POS'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4968,6 +5103,11 @@
           <t>[('hotel', 'POS'), ('quartos', 'POS'), ('localização', 'POS'), ('preço', 'POS')]</t>
         </is>
       </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS'), ('localização', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5130,6 +5270,11 @@
           <t>[('casal', 'NEG'), ('Cama', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG'), ('camas', 'NEG'), ('Cama', 'NEG'), ('recepção', 'NEG'), ('valores', 'NEG'), ('casal', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5292,6 +5437,11 @@
           <t>[('Internet', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>[('Internet', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5454,6 +5604,11 @@
           <t>[('custo', 'POS'), ('instalações', 'POS')]</t>
         </is>
       </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('custo', 'POS'), ('instalações', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5616,6 +5771,11 @@
           <t>[('camas', 'POS'), ('café da manhã', 'POS'), ('preço', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('custo-benefício', 'POS')]</t>
         </is>
       </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('camas', 'POS'), ('café da manhã', 'POS'), ('preço', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5778,6 +5938,11 @@
           <t>[('quartos', 'POS'), ('serviço', 'POS'), ('casal', 'POS')]</t>
         </is>
       </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('serviço', 'POS'), ('comida', 'POS'), ('casal', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5940,6 +6105,11 @@
           <t>[('quartos', 'POS'), ('café da manhã', 'POS'), ('lavanderia', 'POS'), ('Custo', 'POS')]</t>
         </is>
       </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('café da manhã', 'POS'), ('lavanderia', 'NEU'), ('Custo', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6102,6 +6272,11 @@
           <t>[('hotel', 'POS'), ('quarto', 'POS'), ('banheira', 'POS'), ('Limpeza', 'POS'), ('café da manhã', 'POS'), ('hotel', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('Aparência', 'POS'), ('Limpeza', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('banheira', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6264,6 +6439,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('quartos', 'NEG'), ('atendimento', 'POS')]</t>
         </is>
       </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'NEG'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6426,6 +6606,11 @@
           <t>[('piso', 'NEG'), ('carpete', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>[('carpete', 'NEG'), ('piso', 'NEG'), ('quartos', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6588,6 +6773,11 @@
           <t>[('café da manhã', 'POS'), ('quartos', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>[('café da manhã', 'POS'), ('quartos', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6750,6 +6940,11 @@
           <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
         </is>
       </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('empregados', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6912,6 +7107,11 @@
           <t>[('hotel', 'NEG'), ('corredores', 'NEG'), ('carpetes', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('corredores', 'NEG'), ('carpetes', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7074,6 +7274,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('funcionários', 'POS')]</t>
         </is>
       </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('funcionários', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7236,6 +7441,11 @@
           <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('internet', 'POS'), ('quarto', 'POS'), ('atendimento', 'POS')]</t>
         </is>
       </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('internet', 'POS'), ('quarto', 'POS'), ('frigobar', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7398,6 +7608,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('chuveiro', 'NEG'), ('elevador', 'NEG'), ('rua', 'NEG'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'NEG'), ('chuveiro', 'NEG'), ('elevador', 'NEG'), ('rua', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7560,6 +7775,11 @@
           <t>[('hotel', 'NEG'), ('instalações', 'NEG'), ('limpeza', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('instalações', 'NEG'), ('limpeza', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7722,6 +7942,11 @@
           <t>[('cama', 'POS'), ('carpete', 'POS')]</t>
         </is>
       </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('carpete', 'NEU'), ('quarto', 'POS'), ('Localizacao', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7884,6 +8109,11 @@
           <t>[('funcionários', 'NEG'), ('quartos', 'NEG'), ('localização', 'POS'), ('custo-benefício', 'POS')]</t>
         </is>
       </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>[('funcionários', 'NEG'), ('quartos', 'NEG'), ('localização', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8046,6 +8276,11 @@
           <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
         </is>
       </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8208,6 +8443,11 @@
           <t>[('localização', 'POS'), ('cama', 'POS'), ('ducha', 'POS'), ('limpeza', 'POS'), ('cama', 'POS')]</t>
         </is>
       </c>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('cama', 'POS'), ('ducha', 'POS'), ('limpeza', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8370,6 +8610,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('serviço', 'NEG'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('serviço', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8532,6 +8777,11 @@
           <t>[('Hotel', 'POS'), ('localização', 'POS'), ('atendimento', 'POS')]</t>
         </is>
       </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8694,6 +8944,11 @@
           <t>[('localização', 'NEG'), ('avenida', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>[('localização', 'NEG'), ('hotel', 'NEG'), ('avenida', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8856,6 +9111,11 @@
           <t>[('Hotel', 'POS'), ('Apartamentos', 'POS'), ('camas', 'POS'), ('chuveiro', 'POS'), ('Café da manhã', 'POS'), ('hotel', 'POS'), ('Internet', 'POS')]</t>
         </is>
       </c>
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('Apartamentos', 'POS'), ('camas', 'POS'), ('chuveiro', 'POS'), ('Café da manhã', 'POS'), ('cozinha', 'POS'), ('hotel', 'POS'), ('Internet', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9018,6 +9278,11 @@
           <t>[('quartos', 'POS'), ('hotel', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9180,6 +9445,11 @@
           <t>[('Quarto', 'POS'), ('Localização', 'POS'), ('preço', 'POS')]</t>
         </is>
       </c>
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>[('Quarto', 'POS'), ('Localização', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9342,6 +9612,11 @@
           <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('hotel', 'POS'), ('piscina', 'POS')]</t>
         </is>
       </c>
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('hotel', 'POS'), ('piscina', 'POS'), ('hotéis', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9504,6 +9779,11 @@
           <t>[('quarto', 'NEG'), ('tv', 'NEG'), ('hotel', 'NEG'), ('café da manhã', 'POS'), ('preço', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('tv', 'NEG'), ('hotel', 'NEG'), ('café da manhã', 'POS'), ('preço', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9666,6 +9946,11 @@
           <t>[('Quarto', 'POS'), ('cama', 'POS'), ('banheira', 'NEG'), ('cassino', 'POS')]</t>
         </is>
       </c>
+      <c r="AG57" t="inlineStr">
+        <is>
+          <t>[('Quarto', 'POS'), ('cama', 'POS'), ('banheira', 'NEG'), ('cassino', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9828,6 +10113,11 @@
           <t>[('quartos', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG58" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG'), ('shoppings', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9990,6 +10280,11 @@
           <t>[('recepção', 'POS'), ('recepção', 'POS'), ('serviço de quarto', 'NEG'), ('casal', 'POS'), ('café da manhã', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG59" t="inlineStr">
+        <is>
+          <t>[('recepção', 'POS'), ('quarto', 'NEG'), ('café da manhã', 'NEG'), ('casal', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10152,6 +10447,11 @@
           <t>[('hotel', 'POS'), ('Atendimento', 'POS'), ('café da manhã', 'POS'), ('Localização', 'POS'), ('hotel', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AG60" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Atendimento', 'POS'), ('café da manhã', 'POS'), ('Localização', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10314,6 +10614,11 @@
           <t>[('Hotel', 'POS'), ('quartos', 'NEG'), ('Hotel', 'POS'), ('camas', 'POS')]</t>
         </is>
       </c>
+      <c r="AG61" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'NEG'), ('camas', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10476,6 +10781,11 @@
           <t>[('hotel', 'NEG'), ('hotel', 'NEG'), ('atendimento', 'POS'), ('café da manhã', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('atendimento', 'POS'), ('café da manhã', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10638,6 +10948,11 @@
           <t>[('Hotel', 'POS'), ('quartos', 'POS'), ('roupa de cama', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AG63" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'POS'), ('roupa de cama', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10800,6 +11115,11 @@
           <t>[('custo', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AG64" t="inlineStr">
+        <is>
+          <t>[('custo', 'POS'), ('localização', 'POS'), ('apartamento', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10962,6 +11282,11 @@
           <t>[('hotel', 'NEG'), ('quarto', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG65" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('hotel', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11124,6 +11449,11 @@
           <t>[('hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AG66" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11286,6 +11616,11 @@
           <t>[('hotel', 'POS'), ('Quarto', 'POS'), ('frigobar', 'NEG'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG67" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Quarto', 'POS'), ('frigobar', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11448,6 +11783,11 @@
           <t>[('Hotel', 'POS'), ('localização', 'POS'), ('Café da manhã', 'POS'), ('Quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AG68" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('Café da manhã', 'POS'), ('Quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11610,6 +11950,11 @@
           <t>[('hotel', 'POS'), ('Funcionários', 'POS'), ('Quartos', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AG69" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Funcionários', 'POS'), ('Quartos', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11772,6 +12117,11 @@
           <t>[('quartos', 'POS'), ('estacionamento', 'POS')]</t>
         </is>
       </c>
+      <c r="AG70" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('hotel', 'POS'), ('estacionamento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11934,6 +12284,11 @@
           <t>[('quartos', 'NEG'), ('serviço', 'NEG'), ('preço', 'POS'), ('hotel', 'POS'), ('Internet', 'POS'), ('recepção', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG71" t="inlineStr">
+        <is>
+          <t>[('padrão', 'POS'), ('quartos', 'NEG'), ('serviço', 'NEU'), ('preço', 'POS'), ('hotel', 'POS'), ('Internet', 'POS'), ('recepção', 'POS'), ('funcionários', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12096,6 +12451,11 @@
           <t>[('piscina', 'POS'), ('hotel', 'POS'), ('Cassino', 'POS'), ('cassino', 'POS'), ('piscina', 'POS')]</t>
         </is>
       </c>
+      <c r="AG72" t="inlineStr">
+        <is>
+          <t>[('piscina', 'POS'), ('hotel', 'POS'), ('Cassino', 'POS'), ('cassino', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12258,6 +12618,11 @@
           <t>[('Hotel', 'NEG'), ('quartos', 'NEG'), ('Hotel', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG73" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'NEU'), ('quartos', 'NEU'), ('Estacionamento', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12420,6 +12785,11 @@
           <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('ruas', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG74" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('ruas', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('funcionários', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12582,6 +12952,11 @@
           <t>[('localização', 'POS'), ('hotel', 'POS'), ('hotel', 'POS'), ('funcionários', 'POS')]</t>
         </is>
       </c>
+      <c r="AG75" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('hotel', 'POS'), ('funcionários', 'POS'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -12744,6 +13119,11 @@
           <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG76" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('ruas', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -12906,6 +13286,11 @@
           <t>[('atendimento', 'POS'), ('hotel', 'NEG'), ('elevador', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG77" t="inlineStr">
+        <is>
+          <t>[('atendimento', 'POS'), ('hotel', 'NEG'), ('elevador', 'NEG'), ('centro', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13068,6 +13453,11 @@
           <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('localização', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG78" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('bar', 'POS'), ('atendimento', 'POS'), ('restaurante', 'POS'), ('localização', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13230,6 +13620,11 @@
           <t>[('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG79" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -13392,6 +13787,11 @@
           <t>[('quarto', 'NEG'), ('carpete', 'NEG'), ('quarto', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG80" t="inlineStr">
+        <is>
+          <t>[('carpete', 'NEG'), ('papel', 'NEG'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -13554,6 +13954,11 @@
           <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS'), ('hotel', 'POS'), ('cozinha', 'POS')]</t>
         </is>
       </c>
+      <c r="AG81" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS'), ('cozinha', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -13716,6 +14121,11 @@
           <t>[('hotel', 'POS'), ('quarto', 'POS'), ('hotel', 'NEG'), ('quarto', 'NEG'), ('quarto', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG82" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('Quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -13878,6 +14288,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('Hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AG83" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -14040,6 +14455,11 @@
           <t>[('localização', 'POS'), ('funcionários', 'POS'), ('corredor', 'NEG'), ('internet', 'NEG')]</t>
         </is>
       </c>
+      <c r="AG84" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('funcionários', 'POS'), ('prédio', 'POS'), ('internet', 'NEG'), ('corredor', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -14200,6 +14620,11 @@
       <c r="AF85" t="inlineStr">
         <is>
           <t>[('hotel', 'POS'), ('hotel', 'POS'), ('rua', 'POS'), ('funcionários', 'POS'), ('localização', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
+      <c r="AG85" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS'), ('rua', 'POS'), ('funcionários', 'POS'), ('localização', 'POS'), ('custo-benefício', 'POS'), ('café da manhã', 'NEG')]</t>
         </is>
       </c>
     </row>

--- a/data/hotel22/test.xlsx
+++ b/data/hotel22/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG85"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,6 +599,11 @@
           <t>hotel22-bert-base-portuguese-cased-e2eabsa-committee-voting</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>hotel22-bert-base-portuguese-cased-e2eabsa-committee-graph</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -766,6 +771,11 @@
           <t>[('hotel', 'POS'), ('lojas', 'POS'), ('limpeza', 'POS'), ('quartos', 'POS'), ('custo-benefício', 'POS')]</t>
         </is>
       </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('lojas', 'POS'), ('limpeza', 'POS'), ('quartos', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -933,6 +943,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('café da manhã', 'POS'), ('rua', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('café da manhã', 'POS'), ('rua', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1100,6 +1115,11 @@
           <t>[('Localização', 'POS'), ('atendimento', 'POS'), ('serviços', 'POS'), ('hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('Café da manhã', 'POS'), ('Quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>[('Localização', 'POS'), ('atendimento', 'POS'), ('serviços', 'POS'), ('hotel', 'POS'), ('cama', 'POS'), ('Café da manhã', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1267,6 +1287,11 @@
           <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('preço', 'POS'), ('piscinas', 'POS')]</t>
         </is>
       </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('piscinas', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1434,6 +1459,11 @@
           <t>[('quarto', 'POS'), ('cama', 'POS'), ('serviço', 'POS'), ('piscina', 'POS'), ('banheira', 'POS')]</t>
         </is>
       </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('cama', 'POS'), ('serviço', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1601,6 +1631,11 @@
           <t>[('Hotel', 'POS'), ('internet', 'POS'), ('cama', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('cama', 'POS'), ('internet', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1768,6 +1803,11 @@
           <t>[('preço', 'POS'), ('localização', 'POS'), ('chuveiro', 'POS'), ('atendimento', 'POS')]</t>
         </is>
       </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('chuveiro', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1935,6 +1975,11 @@
           <t>[('elevador', 'NEG'), ('quartos', 'NEG'), ('estacionamento', 'NEG'), ('localização', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>[('elevador', 'NEG'), ('quartos', 'NEG'), ('estacionamento', 'NEG'), ('localização', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2102,6 +2147,11 @@
           <t>[('quarto', 'NEG'), ('atendimento', 'POS'), ('hotel', 'POS'), ('internet', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('atendimento', 'POS'), ('hotel', 'POS'), ('internet', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2269,6 +2319,11 @@
           <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('chuveiro', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('chuveiro', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2436,6 +2491,11 @@
           <t>[('hotel', 'POS'), ('quartos', 'POS'), ('café da manhã', 'POS'), ('funcionários', 'POS'), ('internet', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS'), ('café da manhã', 'POS'), ('funcionários', 'POS'), ('internet', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2603,6 +2663,11 @@
           <t>[('cama', 'POS'), ('quarto', 'POS'), ('Limpeza', 'POS'), ('recepção', 'POS')]</t>
         </is>
       </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>[('cama', 'POS'), ('quarto', 'POS'), ('Limpeza', 'POS'), ('recepção', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2770,6 +2835,11 @@
           <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2937,6 +3007,11 @@
           <t>[('cidade', 'POS'), ('hotel', 'POS'), ('preço', 'POS'), ('museu', 'POS')]</t>
         </is>
       </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('cidade', 'POS'), ('hotel', 'POS'), ('museu', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3104,6 +3179,11 @@
           <t>[('hotel', 'POS'), ('localização', 'NEG'), ('internet', 'POS')]</t>
         </is>
       </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3271,6 +3351,11 @@
           <t>[('preço', 'POS'), ('hotel', 'POS'), ('banheira', 'POS'), ('quarto', 'POS'), ('Hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('hotel', 'POS'), ('banheira', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3438,6 +3523,11 @@
           <t>[('preço', 'POS'), ('serviço', 'POS'), ('Hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('serviço', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3605,6 +3695,11 @@
           <t>[('hotel', 'POS'), ('rua', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3772,6 +3867,11 @@
           <t>[('Hotel', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3939,6 +4039,11 @@
           <t>[('hotel', 'POS'), ('apartamento', 'POS'), ('preço', 'POS')]</t>
         </is>
       </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('apartamento', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4106,6 +4211,11 @@
           <t>[('localização', 'POS'), ('quartos', 'POS')]</t>
         </is>
       </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4273,6 +4383,11 @@
           <t>[('hotel', 'POS'), ('frigobar', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('frigobar', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4440,6 +4555,11 @@
           <t>[('Hotel', 'POS'), ('preço', 'POS'), ('café da manhã', 'POS'), ('Toalhas', 'POS'), ('serviço de quarto', 'POS'), ('frigobar', 'POS')]</t>
         </is>
       </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('preço', 'POS'), ('serviços', 'POS'), ('café da manhã', 'POS'), ('Toalhas', 'POS'), ('frigobar', 'POS'), ('serviço de quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4607,6 +4727,11 @@
           <t>[('hotel', 'POS'), ('café da manhã', 'POS')]</t>
         </is>
       </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>[('café da manhã', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4774,6 +4899,11 @@
           <t>[('Hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('limpeza', 'POS'), ('manutenção', 'POS'), ('quartos', 'POS'), ('Café da manhã', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('serviço', 'POS'), ('limpeza', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4941,6 +5071,11 @@
           <t>[('cama', 'POS'), ('Café da manhã', 'POS'), ('atendimento', 'POS'), ('quarto', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>[('Café da manhã', 'POS'), ('atendimento', 'POS'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5108,6 +5243,11 @@
           <t>[('hotel', 'POS'), ('quartos', 'POS'), ('localização', 'POS'), ('preço', 'POS')]</t>
         </is>
       </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS'), ('localização', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5275,6 +5415,11 @@
           <t>[('quartos', 'NEG'), ('camas', 'NEG'), ('Cama', 'NEG'), ('recepção', 'NEG'), ('valores', 'NEG'), ('casal', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG'), ('recepção', 'NEG'), ('casal', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5442,6 +5587,11 @@
           <t>[('Internet', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>[('Internet', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5609,6 +5759,11 @@
           <t>[('Hotel', 'POS'), ('custo', 'POS'), ('instalações', 'POS')]</t>
         </is>
       </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>[('instalações', 'POS'), ('Hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5776,6 +5931,11 @@
           <t>[('quarto', 'POS'), ('camas', 'POS'), ('café da manhã', 'POS'), ('preço', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('custo-benefício', 'POS')]</t>
         </is>
       </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>[('quarto', 'POS'), ('camas', 'POS'), ('café da manhã', 'POS'), ('preço', 'POS'), ('localização', 'POS'), ('hotel', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5943,6 +6103,11 @@
           <t>[('quartos', 'POS'), ('serviço', 'POS'), ('comida', 'POS'), ('casal', 'POS')]</t>
         </is>
       </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('serviço', 'POS'), ('casal', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6110,6 +6275,11 @@
           <t>[('quartos', 'POS'), ('café da manhã', 'POS'), ('lavanderia', 'NEU'), ('Custo', 'POS')]</t>
         </is>
       </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>[('quartos', 'POS'), ('café da manhã', 'POS'), ('lavanderia', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6277,6 +6447,11 @@
           <t>[('hotel', 'POS'), ('quarto', 'POS'), ('Aparência', 'POS'), ('Limpeza', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('banheira', 'POS')]</t>
         </is>
       </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('banheira', 'POS'), ('Limpeza', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6444,6 +6619,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'NEG'), ('atendimento', 'POS')]</t>
         </is>
       </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6611,6 +6791,11 @@
           <t>[('carpete', 'NEG'), ('piso', 'NEG'), ('quartos', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>[('carpete', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6778,6 +6963,11 @@
           <t>[('café da manhã', 'POS'), ('quartos', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>[('café da manhã', 'POS'), ('quartos', 'POS'), ('funcionários', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6945,6 +7135,11 @@
           <t>[('hotel', 'POS'), ('empregados', 'POS'), ('quartos', 'POS')]</t>
         </is>
       </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7112,6 +7307,11 @@
           <t>[('hotel', 'NEG'), ('corredores', 'NEG'), ('carpetes', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('corredores', 'NEG'), ('carpetes', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7279,6 +7479,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('funcionários', 'POS'), ('quartos', 'POS')]</t>
         </is>
       </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('serviço', 'POS'), ('funcionários', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7446,6 +7651,11 @@
           <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('internet', 'POS'), ('quarto', 'POS'), ('frigobar', 'POS'), ('atendimento', 'POS')]</t>
         </is>
       </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('internet', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7613,6 +7823,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'NEG'), ('chuveiro', 'NEG'), ('elevador', 'NEG'), ('rua', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('quarto', 'NEG'), ('chuveiro', 'NEG'), ('elevador', 'NEG'), ('rua', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7780,6 +7995,11 @@
           <t>[('hotel', 'NEG'), ('instalações', 'NEG'), ('limpeza', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('instalações', 'NEG'), ('limpeza', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7947,6 +8167,11 @@
           <t>[('cama', 'POS'), ('carpete', 'NEU'), ('quarto', 'POS'), ('Localizacao', 'POS')]</t>
         </is>
       </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>[('carpete', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8114,6 +8339,11 @@
           <t>[('funcionários', 'NEG'), ('quartos', 'NEG'), ('localização', 'POS'), ('custo-benefício', 'POS')]</t>
         </is>
       </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('custo-benefício', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8281,6 +8511,11 @@
           <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
         </is>
       </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quartos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8448,6 +8683,11 @@
           <t>[('localização', 'POS'), ('cama', 'POS'), ('ducha', 'POS'), ('limpeza', 'POS')]</t>
         </is>
       </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('cama', 'POS'), ('ducha', 'POS'), ('limpeza', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8615,6 +8855,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('serviço', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8782,6 +9027,11 @@
           <t>[('Hotel', 'POS'), ('localização', 'POS'), ('atendimento', 'POS')]</t>
         </is>
       </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('atendimento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8949,6 +9199,11 @@
           <t>[('localização', 'NEG'), ('hotel', 'NEG'), ('avenida', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>[('localização', 'NEG'), ('hotel', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9116,6 +9371,11 @@
           <t>[('Hotel', 'POS'), ('Apartamentos', 'POS'), ('camas', 'POS'), ('chuveiro', 'POS'), ('Café da manhã', 'POS'), ('cozinha', 'POS'), ('hotel', 'POS'), ('Internet', 'POS')]</t>
         </is>
       </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('Apartamentos', 'POS'), ('camas', 'POS'), ('chuveiro', 'POS'), ('Café da manhã', 'POS'), ('Internet', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9283,6 +9543,11 @@
           <t>[('quartos', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9450,6 +9715,11 @@
           <t>[('Quarto', 'POS'), ('Localização', 'POS'), ('preço', 'POS')]</t>
         </is>
       </c>
+      <c r="AH54" t="inlineStr">
+        <is>
+          <t>[('Quarto', 'POS'), ('Localização', 'POS'), ('preço', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9617,6 +9887,11 @@
           <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('hotel', 'POS'), ('piscina', 'POS'), ('hotéis', 'POS')]</t>
         </is>
       </c>
+      <c r="AH55" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('piscina', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9784,6 +10059,11 @@
           <t>[('quarto', 'NEG'), ('tv', 'NEG'), ('hotel', 'NEG'), ('café da manhã', 'POS'), ('preço', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH56" t="inlineStr">
+        <is>
+          <t>[('quarto', 'NEG'), ('tv', 'NEG'), ('hotel', 'NEG'), ('café da manhã', 'POS'), ('preço', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9951,6 +10231,11 @@
           <t>[('Quarto', 'POS'), ('cama', 'POS'), ('banheira', 'NEG'), ('cassino', 'POS')]</t>
         </is>
       </c>
+      <c r="AH57" t="inlineStr">
+        <is>
+          <t>[('Quarto', 'POS'), ('cama', 'POS'), ('banheira', 'NEG'), ('cassino', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10118,6 +10403,11 @@
           <t>[('quartos', 'NEG'), ('shoppings', 'POS')]</t>
         </is>
       </c>
+      <c r="AH58" t="inlineStr">
+        <is>
+          <t>[('quartos', 'NEG'), ('shoppings', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10285,6 +10575,11 @@
           <t>[('recepção', 'POS'), ('quarto', 'NEG'), ('café da manhã', 'NEG'), ('casal', 'POS')]</t>
         </is>
       </c>
+      <c r="AH59" t="inlineStr">
+        <is>
+          <t>[('recepção', 'POS'), ('serviço de quarto', 'NEG'), ('café da manhã', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10452,6 +10747,11 @@
           <t>[('hotel', 'POS'), ('Atendimento', 'POS'), ('café da manhã', 'POS'), ('Localização', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Atendimento', 'POS'), ('café da manhã', 'POS'), ('Localização', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10619,6 +10919,11 @@
           <t>[('Hotel', 'POS'), ('quartos', 'NEG'), ('camas', 'POS')]</t>
         </is>
       </c>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'NEG'), ('camas', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10786,6 +11091,11 @@
           <t>[('hotel', 'NEG'), ('atendimento', 'POS'), ('café da manhã', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('atendimento', 'POS'), ('café da manhã', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10953,6 +11263,11 @@
           <t>[('Hotel', 'POS'), ('quartos', 'POS'), ('roupa de cama', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('quartos', 'POS'), ('roupa de cama', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11120,6 +11435,11 @@
           <t>[('custo', 'POS'), ('localização', 'POS'), ('apartamento', 'POS'), ('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AH64" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11287,6 +11607,11 @@
           <t>[('quarto', 'NEG'), ('hotel', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH65" t="inlineStr">
+        <is>
+          <t>[('hotel', 'NEG'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11454,6 +11779,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS')]</t>
         </is>
       </c>
+      <c r="AH66" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11621,6 +11951,11 @@
           <t>[('hotel', 'POS'), ('Quarto', 'POS'), ('frigobar', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH67" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('frigobar', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11788,6 +12123,11 @@
           <t>[('Hotel', 'POS'), ('localização', 'POS'), ('Café da manhã', 'POS'), ('Quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AH68" t="inlineStr">
+        <is>
+          <t>[('Hotel', 'POS'), ('localização', 'POS'), ('Café da manhã', 'POS'), ('Quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11955,6 +12295,11 @@
           <t>[('hotel', 'POS'), ('Funcionários', 'POS'), ('Quartos', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AH69" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('Funcionários', 'POS'), ('Quartos', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12122,6 +12467,11 @@
           <t>[('quartos', 'POS'), ('hotel', 'POS'), ('estacionamento', 'POS')]</t>
         </is>
       </c>
+      <c r="AH70" t="inlineStr">
+        <is>
+          <t>[('estacionamento', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12289,6 +12639,11 @@
           <t>[('padrão', 'POS'), ('quartos', 'NEG'), ('serviço', 'NEU'), ('preço', 'POS'), ('hotel', 'POS'), ('Internet', 'POS'), ('recepção', 'POS'), ('funcionários', 'POS')]</t>
         </is>
       </c>
+      <c r="AH71" t="inlineStr">
+        <is>
+          <t>[('preço', 'POS'), ('Internet', 'POS'), ('recepção', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12456,6 +12811,11 @@
           <t>[('piscina', 'POS'), ('hotel', 'POS'), ('Cassino', 'POS'), ('cassino', 'POS')]</t>
         </is>
       </c>
+      <c r="AH72" t="inlineStr">
+        <is>
+          <t>[('piscina', 'POS'), ('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12623,6 +12983,11 @@
           <t>[('Hotel', 'NEU'), ('quartos', 'NEU'), ('Estacionamento', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH73" t="inlineStr">
+        <is>
+          <t>[('Estacionamento', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12790,6 +13155,11 @@
           <t>[('Hotel', 'POS'), ('hotel', 'POS'), ('localização', 'POS'), ('ruas', 'POS'), ('quarto', 'POS'), ('cama', 'POS'), ('funcionários', 'POS')]</t>
         </is>
       </c>
+      <c r="AH74" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('ruas', 'POS'), ('cama', 'POS'), ('funcionários', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12957,6 +13327,11 @@
           <t>[('localização', 'POS'), ('hotel', 'POS'), ('funcionários', 'POS'), ('quarto', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH75" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('hotel', 'POS'), ('funcionários', 'POS'), ('quarto', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13124,6 +13499,11 @@
           <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('localização', 'POS'), ('quarto', 'POS'), ('ruas', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH76" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('café da manhã', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -13291,6 +13671,11 @@
           <t>[('atendimento', 'POS'), ('hotel', 'NEG'), ('elevador', 'NEG'), ('centro', 'POS')]</t>
         </is>
       </c>
+      <c r="AH77" t="inlineStr">
+        <is>
+          <t>[('atendimento', 'POS'), ('hotel', 'NEG'), ('elevador', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13458,6 +13843,11 @@
           <t>[('hotel', 'POS'), ('bar', 'POS'), ('atendimento', 'POS'), ('restaurante', 'POS'), ('localização', 'POS'), ('quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AH78" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13625,6 +14015,11 @@
           <t>[('hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AH79" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -13792,6 +14187,11 @@
           <t>[('carpete', 'NEG'), ('papel', 'NEG'), ('quarto', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH80" t="inlineStr">
+        <is>
+          <t>[('carpete', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -13959,6 +14359,11 @@
           <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS'), ('cozinha', 'POS')]</t>
         </is>
       </c>
+      <c r="AH81" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('atendimento', 'POS'), ('quarto', 'POS'), ('cozinha', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -14126,6 +14531,11 @@
           <t>[('hotel', 'POS'), ('quarto', 'POS'), ('Quarto', 'POS')]</t>
         </is>
       </c>
+      <c r="AH82" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('quarto', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -14293,6 +14703,11 @@
           <t>[('hotel', 'POS'), ('localização', 'POS'), ('Hotel', 'POS')]</t>
         </is>
       </c>
+      <c r="AH83" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS')]</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -14460,6 +14875,11 @@
           <t>[('localização', 'POS'), ('funcionários', 'POS'), ('prédio', 'POS'), ('internet', 'NEG'), ('corredor', 'NEG')]</t>
         </is>
       </c>
+      <c r="AH84" t="inlineStr">
+        <is>
+          <t>[('localização', 'POS'), ('funcionários', 'POS'), ('internet', 'NEG'), ('corredor', 'NEG')]</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -14625,6 +15045,11 @@
       <c r="AG85" t="inlineStr">
         <is>
           <t>[('hotel', 'POS'), ('quarto', 'POS'), ('rua', 'POS'), ('funcionários', 'POS'), ('localização', 'POS'), ('custo-benefício', 'POS'), ('café da manhã', 'NEG')]</t>
+        </is>
+      </c>
+      <c r="AH85" t="inlineStr">
+        <is>
+          <t>[('hotel', 'POS'), ('rua', 'POS'), ('funcionários', 'POS'), ('localização', 'POS'), ('custo-benefício', 'POS'), ('café da manhã', 'NEG')]</t>
         </is>
       </c>
     </row>
